--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemHost\Documents\GitHub\ERP\Diccionarios Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemHost\Documents\GitHub\ERP\Diccionarios Datos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$D$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="198">
   <si>
     <t>BD</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>Esquema</t>
+  </si>
+  <si>
+    <t>db_comsucre</t>
+  </si>
+  <si>
+    <t>sufijoTabla</t>
+  </si>
+  <si>
+    <t>sufijoProcedure</t>
+  </si>
+  <si>
+    <t>sufijoFuncion</t>
   </si>
 </sst>
 </file>
@@ -855,8 +867,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,37 +1183,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:T74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.42578125" style="32"/>
-    <col min="4" max="5" width="11.42578125" style="31"/>
-    <col min="6" max="6" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="32"/>
-    <col min="11" max="11" width="8.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="23" style="32" customWidth="1"/>
-    <col min="16" max="16" width="35.5703125" style="32" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="2" width="11.42578125" style="32"/>
+    <col min="3" max="3" width="15.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="23" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="31"/>
+    <col min="11" max="11" width="8.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="23" style="31" customWidth="1"/>
+    <col min="16" max="16" width="35.5703125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
@@ -1234,14 +1255,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>52</v>
       </c>
@@ -1269,14 +1295,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>52</v>
       </c>
@@ -1302,14 +1333,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
         <v>52</v>
       </c>
@@ -1335,14 +1371,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="13" t="s">
+      <c r="B5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
         <v>52</v>
       </c>
@@ -1368,14 +1409,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
         <v>52</v>
       </c>
@@ -1401,14 +1447,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
         <v>52</v>
       </c>
@@ -1434,14 +1485,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
         <v>53</v>
       </c>
@@ -1469,14 +1525,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="14" t="s">
+    <row r="9" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17" t="s">
+      <c r="B9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
         <v>53</v>
       </c>
@@ -1502,14 +1563,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17" t="s">
+      <c r="B10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
         <v>53</v>
       </c>
@@ -1535,14 +1601,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="14" t="s">
+    <row r="11" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17" t="s">
+      <c r="B11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
         <v>53</v>
       </c>
@@ -1568,14 +1639,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17" t="s">
+      <c r="B12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="17" t="s">
         <v>53</v>
       </c>
@@ -1601,14 +1677,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+    <row r="13" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="17" t="s">
+      <c r="B13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
         <v>53</v>
       </c>
@@ -1634,14 +1715,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
         <v>54</v>
       </c>
@@ -1669,14 +1755,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13" t="s">
         <v>54</v>
       </c>
@@ -1702,14 +1793,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
         <v>54</v>
       </c>
@@ -1735,14 +1831,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="13" t="s">
+      <c r="B17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="13" t="s">
         <v>54</v>
       </c>
@@ -1768,14 +1869,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="13" t="s">
+      <c r="B18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
         <v>54</v>
       </c>
@@ -1801,14 +1907,19 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="s">
+    <row r="19" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="15" t="s">
         <v>71</v>
       </c>
@@ -1836,14 +1947,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
+    <row r="20" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="15" t="s">
         <v>71</v>
       </c>
@@ -1869,14 +1985,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
+    <row r="21" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="17" t="s">
+      <c r="B21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
         <v>71</v>
       </c>
@@ -1902,14 +2023,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="14" t="s">
+    <row r="22" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17" t="s">
+      <c r="B22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
         <v>71</v>
       </c>
@@ -1935,14 +2061,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="14" t="s">
+    <row r="23" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="17" t="s">
+      <c r="B23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
         <v>71</v>
       </c>
@@ -1968,14 +2099,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="s">
+    <row r="24" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="17" t="s">
+      <c r="B24" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
         <v>71</v>
       </c>
@@ -2001,14 +2137,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="14" t="s">
+    <row r="25" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="17" t="s">
+      <c r="B25" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
         <v>71</v>
       </c>
@@ -2034,14 +2175,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
         <v>85</v>
       </c>
@@ -2069,14 +2215,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
         <v>85</v>
       </c>
@@ -2102,14 +2253,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="13" t="s">
+      <c r="B28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
         <v>85</v>
       </c>
@@ -2135,14 +2291,19 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="5" t="s">
+    <row r="29" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="13" t="s">
+      <c r="B29" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="13" t="s">
         <v>85</v>
       </c>
@@ -2166,14 +2327,19 @@
       <c r="O29" s="13"/>
       <c r="P29" s="28"/>
     </row>
-    <row r="30" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="13" t="s">
+      <c r="B30" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="13" t="s">
         <v>85</v>
       </c>
@@ -2199,14 +2365,19 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="5" t="s">
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="13" t="s">
+      <c r="B31" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="13" t="s">
         <v>85</v>
       </c>
@@ -2232,14 +2403,19 @@
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="5" t="s">
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="13" t="s">
+      <c r="B32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="13" t="s">
         <v>85</v>
       </c>
@@ -2265,14 +2441,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="14" t="s">
+    <row r="33" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15" t="s">
+      <c r="B33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>70</v>
       </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="15" t="s">
         <v>86</v>
       </c>
@@ -2300,14 +2481,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
+    <row r="34" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="17" t="s">
+      <c r="B34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
         <v>86</v>
       </c>
@@ -2333,14 +2519,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="14" t="s">
+    <row r="35" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="17" t="s">
+      <c r="B35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="17" t="s">
         <v>86</v>
       </c>
@@ -2366,14 +2557,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6" t="s">
         <v>95</v>
       </c>
@@ -2405,14 +2601,19 @@
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
     </row>
-    <row r="37" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="13" t="s">
+      <c r="B37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
         <v>95</v>
       </c>
@@ -2442,14 +2643,19 @@
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
     </row>
-    <row r="38" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="13" t="s">
+      <c r="B38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>70</v>
       </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="13" t="s">
         <v>95</v>
       </c>
@@ -2479,14 +2685,19 @@
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
     </row>
-    <row r="39" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="s">
+    <row r="39" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15" t="s">
+      <c r="B39" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="15" t="s">
         <v>96</v>
       </c>
@@ -2514,14 +2725,19 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="14" t="s">
+    <row r="40" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15" t="s">
+      <c r="B40" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="15" t="s">
         <v>96</v>
       </c>
@@ -2547,14 +2763,19 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="14" t="s">
+    <row r="41" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15" t="s">
+      <c r="B41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="15" t="s">
         <v>96</v>
       </c>
@@ -2578,14 +2799,19 @@
       <c r="O41" s="15"/>
       <c r="P41" s="20"/>
     </row>
-    <row r="42" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="14" t="s">
+    <row r="42" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="17" t="s">
+      <c r="B42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>97</v>
       </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
         <v>96</v>
       </c>
@@ -2611,14 +2837,19 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="14" t="s">
+    <row r="43" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="17" t="s">
+      <c r="B43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>97</v>
       </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
         <v>96</v>
       </c>
@@ -2642,14 +2873,19 @@
       <c r="O43" s="17"/>
       <c r="P43" s="20"/>
     </row>
-    <row r="44" spans="4:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="14" t="s">
+    <row r="44" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="17" t="s">
+      <c r="B44" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>97</v>
       </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
         <v>96</v>
       </c>
@@ -2675,14 +2911,19 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="5" t="s">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
+      <c r="B45" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
         <v>111</v>
       </c>
@@ -2710,14 +2951,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="13" t="s">
+      <c r="B46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
         <v>111</v>
       </c>
@@ -2743,14 +2989,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="5" t="s">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="13" t="s">
+      <c r="B47" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="13" t="s">
         <v>111</v>
       </c>
@@ -2776,14 +3027,19 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="4:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="5" t="s">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="13" t="s">
+      <c r="B48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
       <c r="G48" s="13" t="s">
         <v>111</v>
       </c>
@@ -2809,14 +3065,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="5" t="s">
+    <row r="49" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="13" t="s">
+      <c r="B49" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="13" t="s">
         <v>111</v>
       </c>
@@ -2842,14 +3103,19 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="5" t="s">
+    <row r="50" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="13" t="s">
+      <c r="B50" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="13" t="s">
         <v>111</v>
       </c>
@@ -2875,14 +3141,19 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="5" t="s">
+    <row r="51" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="13" t="s">
+      <c r="B51" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
         <v>111</v>
       </c>
@@ -2908,14 +3179,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="5" t="s">
+    <row r="52" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="13" t="s">
+      <c r="B52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="13" t="s">
         <v>111</v>
       </c>
@@ -2941,14 +3217,19 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="14" t="s">
+    <row r="53" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15" t="s">
+      <c r="B53" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="15" t="s">
         <v>191</v>
       </c>
@@ -2974,14 +3255,19 @@
       <c r="O53" s="15"/>
       <c r="P53" s="30"/>
     </row>
-    <row r="54" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="s">
+    <row r="54" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="17" t="s">
+      <c r="B54" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
         <v>191</v>
       </c>
@@ -3005,14 +3291,19 @@
       <c r="O54" s="17"/>
       <c r="P54" s="30"/>
     </row>
-    <row r="55" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="14" t="s">
+    <row r="55" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="17" t="s">
+      <c r="B55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="17" t="s">
         <v>191</v>
       </c>
@@ -3036,14 +3327,19 @@
       <c r="O55" s="17"/>
       <c r="P55" s="30"/>
     </row>
-    <row r="56" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="14" t="s">
+    <row r="56" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="17" t="s">
+      <c r="B56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="17" t="s">
         <v>191</v>
       </c>
@@ -3067,14 +3363,19 @@
       <c r="O56" s="17"/>
       <c r="P56" s="30"/>
     </row>
-    <row r="57" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="14" t="s">
+    <row r="57" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="17" t="s">
+      <c r="B57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="17" t="s">
         <v>191</v>
       </c>
@@ -3098,14 +3399,19 @@
       <c r="O57" s="17"/>
       <c r="P57" s="30"/>
     </row>
-    <row r="58" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="5" t="s">
+    <row r="58" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6" t="s">
+      <c r="B58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
         <v>137</v>
       </c>
@@ -3133,14 +3439,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="5" t="s">
+    <row r="59" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="13" t="s">
+      <c r="B59" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="13" t="s">
         <v>137</v>
       </c>
@@ -3166,14 +3477,19 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="5" t="s">
+    <row r="60" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="13" t="s">
+      <c r="B60" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="13" t="s">
         <v>137</v>
       </c>
@@ -3199,14 +3515,19 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="5" t="s">
+    <row r="61" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="13" t="s">
+      <c r="B61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="13" t="s">
         <v>137</v>
       </c>
@@ -3232,14 +3553,19 @@
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="5" t="s">
+    <row r="62" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="13" t="s">
+      <c r="B62" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="13" t="s">
         <v>137</v>
       </c>
@@ -3265,14 +3591,19 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="5" t="s">
+    <row r="63" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="13" t="s">
+      <c r="B63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="13" t="s">
         <v>137</v>
       </c>
@@ -3298,14 +3629,19 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="14" t="s">
+    <row r="64" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="15" t="s">
+      <c r="B64" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>112</v>
       </c>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="15" t="s">
         <v>153</v>
       </c>
@@ -3331,14 +3667,19 @@
       <c r="O64" s="15"/>
       <c r="P64" s="18"/>
     </row>
-    <row r="65" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="s">
+    <row r="65" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="17" t="s">
+      <c r="B65" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
       <c r="G65" s="17" t="s">
         <v>153</v>
       </c>
@@ -3362,14 +3703,19 @@
       <c r="O65" s="17"/>
       <c r="P65" s="20"/>
     </row>
-    <row r="66" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="s">
+    <row r="66" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="17" t="s">
+      <c r="B66" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
       <c r="G66" s="17" t="s">
         <v>153</v>
       </c>
@@ -3393,14 +3739,19 @@
       <c r="O66" s="17"/>
       <c r="P66" s="20"/>
     </row>
-    <row r="67" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="s">
+    <row r="67" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="17" t="s">
+      <c r="B67" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="17" t="s">
         <v>153</v>
       </c>
@@ -3424,14 +3775,19 @@
       <c r="O67" s="17"/>
       <c r="P67" s="20"/>
     </row>
-    <row r="68" spans="4:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
+    <row r="68" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="17" t="s">
+      <c r="B68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>112</v>
       </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
       <c r="G68" s="17" t="s">
         <v>153</v>
       </c>
@@ -3455,14 +3811,19 @@
       <c r="O68" s="17"/>
       <c r="P68" s="20"/>
     </row>
-    <row r="69" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="5" t="s">
+    <row r="69" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6" t="s">
+      <c r="B69" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="6" t="s">
         <v>154</v>
       </c>
@@ -3490,14 +3851,19 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="5" t="s">
+    <row r="70" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="5"/>
-      <c r="F70" s="13" t="s">
+      <c r="B70" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="13" t="s">
         <v>154</v>
       </c>
@@ -3523,14 +3889,19 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="5" t="s">
+    <row r="71" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="13" t="s">
+      <c r="B71" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="13" t="s">
         <v>154</v>
       </c>
@@ -3556,14 +3927,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="5" t="s">
+    <row r="72" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="13" t="s">
+      <c r="B72" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="13" t="s">
         <v>154</v>
       </c>
@@ -3589,14 +3965,19 @@
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="5" t="s">
+    <row r="73" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="13" t="s">
+      <c r="B73" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="13" t="s">
         <v>154</v>
       </c>
@@ -3622,14 +4003,19 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="4:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="5" t="s">
+    <row r="74" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="13" t="s">
+      <c r="B74" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>112</v>
       </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="13" t="s">
         <v>154</v>
       </c>
@@ -3656,7 +4042,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:P1"/>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="201">
   <si>
     <t>BD</t>
   </si>
@@ -185,15 +185,6 @@
     <t>Tabla</t>
   </si>
   <si>
-    <t>Tb_kardex</t>
-  </si>
-  <si>
-    <t>Tb_MateriaPrima</t>
-  </si>
-  <si>
-    <t>Tb_cabeceraOrden</t>
-  </si>
-  <si>
     <t>id_cabecera</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>db_manufactura</t>
   </si>
   <si>
-    <t>Tb_datalleOrdenMPrima</t>
-  </si>
-  <si>
     <t>id_datelleOrden</t>
   </si>
   <si>
@@ -287,9 +275,6 @@
     <t>datalleGFPrima</t>
   </si>
   <si>
-    <t>Tb_gastosG</t>
-  </si>
-  <si>
     <t>id_gastosG</t>
   </si>
   <si>
@@ -314,12 +299,6 @@
     <t>Campo que gastos g está activo o inactivo</t>
   </si>
   <si>
-    <t>Tb_ManoObra</t>
-  </si>
-  <si>
-    <t>Tb_traza</t>
-  </si>
-  <si>
     <t>db_traza</t>
   </si>
   <si>
@@ -362,9 +341,6 @@
     <t>Fecha del registro del log</t>
   </si>
   <si>
-    <t>Tb_login</t>
-  </si>
-  <si>
     <t>db_seguridad</t>
   </si>
   <si>
@@ -440,9 +416,6 @@
     <t>FechaModificacionPermisosROLTRX</t>
   </si>
   <si>
-    <t>Tb_rol</t>
-  </si>
-  <si>
     <t>id_rol</t>
   </si>
   <si>
@@ -488,12 +461,6 @@
     <t xml:space="preserve">Indica si el rol está activo o inactivo </t>
   </si>
   <si>
-    <t>Tb_ROLTRX</t>
-  </si>
-  <si>
-    <t>Tb_trx</t>
-  </si>
-  <si>
     <t>Identificador del campo trx para el sistema</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>fechaCreacionROLTRX</t>
   </si>
   <si>
-    <t>Tb_permisosroltrx</t>
-  </si>
-  <si>
     <t>Accion</t>
   </si>
   <si>
@@ -621,6 +585,51 @@
   </si>
   <si>
     <t>sufijoFuncion</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>kardex</t>
+  </si>
+  <si>
+    <t>MateriaPrima</t>
+  </si>
+  <si>
+    <t>cabeceraOrden</t>
+  </si>
+  <si>
+    <t>datalleOrdenMPrima</t>
+  </si>
+  <si>
+    <t>gastosG</t>
+  </si>
+  <si>
+    <t>ManoObra</t>
+  </si>
+  <si>
+    <t>traza</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>permisosroltrx</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>ROLTRX</t>
+  </si>
+  <si>
+    <t>trx</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1195,7 @@
   <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1207,22 +1216,22 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
@@ -1243,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>6</v>
@@ -1257,19 +1266,25 @@
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G2" s="6" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H2" s="6">
         <v>2</v>
@@ -1297,19 +1312,25 @@
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G3" s="6" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H3" s="6">
         <v>5</v>
@@ -1335,19 +1356,25 @@
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G4" s="13" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H4" s="13">
         <v>8</v>
@@ -1373,19 +1400,25 @@
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G5" s="13" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H5" s="13">
         <v>11</v>
@@ -1411,19 +1444,25 @@
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G6" s="13" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H6" s="13">
         <v>14</v>
@@ -1449,19 +1488,25 @@
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G7" s="13" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="H7" s="13">
         <v>17</v>
@@ -1487,19 +1532,25 @@
     </row>
     <row r="8" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="D8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G8" s="15" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H8" s="15">
         <v>22</v>
@@ -1527,19 +1578,25 @@
     </row>
     <row r="9" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G9" s="17" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H9" s="17">
         <v>25</v>
@@ -1565,19 +1622,25 @@
     </row>
     <row r="10" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="D10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G10" s="17" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H10" s="17">
         <v>28</v>
@@ -1603,19 +1666,25 @@
     </row>
     <row r="11" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="D11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G11" s="17" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H11" s="17">
         <v>31</v>
@@ -1641,19 +1710,25 @@
     </row>
     <row r="12" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G12" s="17" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H12" s="17">
         <v>34</v>
@@ -1679,19 +1754,25 @@
     </row>
     <row r="13" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="G13" s="17" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="H13" s="17">
         <v>37</v>
@@ -1717,25 +1798,31 @@
     </row>
     <row r="14" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H14" s="6">
         <v>41</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>8</v>
@@ -1752,36 +1839,42 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G15" s="13" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H15" s="13">
         <v>44</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>15</v>
@@ -1790,36 +1883,42 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G16" s="13" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H16" s="13">
         <v>47</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>15</v>
@@ -1828,36 +1927,42 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G17" s="13" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H17" s="13">
         <v>50</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>15</v>
@@ -1866,33 +1971,39 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G18" s="13" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="H18" s="13">
         <v>53</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>26</v>
@@ -1904,30 +2015,36 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G19" s="15" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H19" s="15">
         <v>57</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>8</v>
@@ -1944,30 +2061,36 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G20" s="15" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H20" s="15">
         <v>60</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>8</v>
@@ -1982,36 +2105,42 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G21" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H21" s="17">
         <v>63</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J21" s="18" t="s">
         <v>34</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>15</v>
@@ -2020,30 +2149,36 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G22" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H22" s="17">
         <v>66</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J22" s="18" t="s">
         <v>21</v>
@@ -2058,30 +2193,36 @@
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G23" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H23" s="17">
         <v>69</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J23" s="18" t="s">
         <v>21</v>
@@ -2096,30 +2237,36 @@
       <c r="N23" s="17"/>
       <c r="O23" s="17"/>
       <c r="P23" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G24" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H24" s="17">
         <v>72</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J24" s="18" t="s">
         <v>21</v>
@@ -2134,30 +2281,36 @@
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
       <c r="P24" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G25" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="H25" s="17">
         <v>75</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J25" s="18" t="s">
         <v>18</v>
@@ -2172,30 +2325,36 @@
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G26" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H26" s="6">
         <v>79</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J26" s="22" t="s">
         <v>8</v>
@@ -2212,30 +2371,36 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G27" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H27" s="6">
         <v>82</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J27" s="22" t="s">
         <v>8</v>
@@ -2250,30 +2415,36 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G28" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H28" s="13">
         <v>85</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>13</v>
@@ -2288,30 +2459,36 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G29" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H29" s="13">
         <v>88</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="J29" s="26" t="s">
         <v>13</v>
@@ -2329,25 +2506,31 @@
     </row>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G30" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H30" s="13">
         <v>91</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>21</v>
@@ -2362,30 +2545,36 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="22" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G31" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H31" s="13">
         <v>94</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J31" s="22" t="s">
         <v>21</v>
@@ -2400,30 +2589,36 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="22" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G32" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H32" s="13">
         <v>97</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>21</v>
@@ -2438,30 +2633,36 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G33" s="15" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="H33" s="15">
         <v>101</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>8</v>
@@ -2478,30 +2679,36 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G34" s="17" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="H34" s="17">
         <v>104</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J34" s="18" t="s">
         <v>38</v>
@@ -2516,36 +2723,42 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G35" s="17" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="H35" s="17">
         <v>107</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>40</v>
@@ -2554,30 +2767,36 @@
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
       <c r="P35" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H36" s="6">
         <v>111</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>8</v>
@@ -2594,7 +2813,7 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="13" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -2603,25 +2822,31 @@
     </row>
     <row r="37" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="H37" s="13">
         <v>114</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>38</v>
@@ -2636,7 +2861,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
@@ -2645,31 +2870,37 @@
     </row>
     <row r="38" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="H38" s="13">
         <v>117</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>40</v>
@@ -2678,7 +2909,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
@@ -2687,25 +2918,31 @@
     </row>
     <row r="39" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G39" s="15" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H39" s="15">
         <v>121</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>8</v>
@@ -2722,33 +2959,39 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G40" s="15" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H40" s="15">
         <v>124</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K40" s="29" t="s">
         <v>14</v>
@@ -2760,33 +3003,39 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G41" s="15" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H41" s="15">
         <v>128</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K41" s="29" t="s">
         <v>14</v>
@@ -2801,31 +3050,37 @@
     </row>
     <row r="42" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G42" s="17" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H42" s="17">
         <v>130</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>15</v>
@@ -2834,33 +3089,39 @@
       <c r="N42" s="17"/>
       <c r="O42" s="17"/>
       <c r="P42" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G43" s="17" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H43" s="17">
         <v>134</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K43" s="20" t="s">
         <v>47</v>
@@ -2875,25 +3136,31 @@
     </row>
     <row r="44" spans="1:20" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G44" s="17" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="H44" s="17">
         <v>136</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>25</v>
@@ -2908,30 +3175,36 @@
       <c r="N44" s="17"/>
       <c r="O44" s="17"/>
       <c r="P44" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G45" s="6" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H45" s="6">
         <v>140</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>8</v>
@@ -2948,36 +3221,42 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G46" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H46" s="13">
         <v>143</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>10</v>
@@ -2986,36 +3265,42 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G47" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H47" s="13">
         <v>146</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>15</v>
@@ -3024,30 +3309,36 @@
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G48" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H48" s="13">
         <v>149</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>25</v>
@@ -3062,30 +3353,36 @@
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G49" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H49" s="13">
         <v>152</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>25</v>
@@ -3100,30 +3397,36 @@
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G50" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H50" s="13">
         <v>155</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>25</v>
@@ -3138,36 +3441,42 @@
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G51" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H51" s="13">
         <v>158</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>15</v>
@@ -3176,36 +3485,42 @@
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G52" s="13" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H52" s="13">
         <v>161</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>15</v>
@@ -3214,36 +3529,42 @@
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G53" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H53" s="15">
         <v>164</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>15</v>
@@ -3257,31 +3578,37 @@
     </row>
     <row r="54" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G54" s="17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H54" s="17">
         <v>167</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>15</v>
@@ -3293,31 +3620,37 @@
     </row>
     <row r="55" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G55" s="17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H55" s="17">
         <v>170</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>15</v>
@@ -3329,25 +3662,31 @@
     </row>
     <row r="56" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G56" s="17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H56" s="17">
         <v>173</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="J56" s="18" t="s">
         <v>25</v>
@@ -3365,25 +3704,31 @@
     </row>
     <row r="57" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G57" s="17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H57" s="17">
         <v>175</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J57" s="18" t="s">
         <v>25</v>
@@ -3401,31 +3746,37 @@
     </row>
     <row r="58" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G58" s="6" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="H58" s="6">
         <v>178</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>10</v>
@@ -3436,36 +3787,42 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="P58" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G59" s="13" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="H59" s="13">
         <v>181</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>15</v>
@@ -3474,36 +3831,42 @@
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G60" s="13" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="H60" s="13">
         <v>184</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>15</v>
@@ -3512,36 +3875,42 @@
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G61" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="13">
+        <v>187</v>
+      </c>
+      <c r="I61" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H61" s="13">
-        <v>187</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="J61" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>15</v>
@@ -3550,30 +3919,36 @@
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G62" s="13" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="H62" s="13">
         <v>189</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>25</v>
@@ -3588,36 +3963,42 @@
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G63" s="13" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="H63" s="13">
         <v>192</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>15</v>
@@ -3626,36 +4007,42 @@
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+        <v>104</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G64" s="15" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H64" s="15">
         <v>196</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L64" s="15" t="s">
         <v>15</v>
@@ -3669,31 +4056,37 @@
     </row>
     <row r="65" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G65" s="17" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H65" s="17">
         <v>199</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L65" s="17" t="s">
         <v>40</v>
@@ -3705,31 +4098,37 @@
     </row>
     <row r="66" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G66" s="17" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H66" s="17">
         <v>202</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L66" s="17" t="s">
         <v>15</v>
@@ -3741,25 +4140,31 @@
     </row>
     <row r="67" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G67" s="17" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H67" s="17">
         <v>205</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J67" s="17" t="s">
         <v>25</v>
@@ -3777,25 +4182,31 @@
     </row>
     <row r="68" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+        <v>104</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G68" s="17" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="H68" s="17">
         <v>207</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J68" s="17" t="s">
         <v>25</v>
@@ -3813,31 +4224,37 @@
     </row>
     <row r="69" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G69" s="6" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H69" s="6">
         <v>214</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>10</v>
@@ -3848,36 +4265,42 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G70" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H70" s="13">
         <v>217</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>15</v>
@@ -3886,36 +4309,42 @@
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G71" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H71" s="13">
         <v>221</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>15</v>
@@ -3924,36 +4353,42 @@
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="12" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G72" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H72" s="13">
         <v>224</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L72" s="8" t="s">
         <v>15</v>
@@ -3962,33 +4397,39 @@
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G73" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H73" s="13">
         <v>227</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>47</v>
@@ -4000,36 +4441,42 @@
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
       <c r="P73" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G74" s="13" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="H74" s="13">
         <v>230</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L74" s="8" t="s">
         <v>15</v>
@@ -4038,11 +4485,12 @@
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="12" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemHost\Documents\GitHub\ERP\Diccionarios Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPGIT\ERP\Diccionarios Datos\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1161,2413 +1161,2487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="11"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="35.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="11"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="24">
+      <c r="E2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="24"/>
       <c r="K2" s="24"/>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="24">
+      <c r="E3" s="24">
         <v>5</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="24"/>
+      <c r="I3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="32"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <v>8</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <v>14</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="27">
+      <c r="E8" s="27">
         <v>22</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="H8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="I8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="J8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="19"/>
+      <c r="M8" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="19">
+      <c r="E9" s="19">
         <v>25</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="19"/>
+      <c r="M9" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="19">
+      <c r="E10" s="19">
         <v>28</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="19"/>
+      <c r="M10" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="19">
+      <c r="E11" s="19">
         <v>31</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="19">
+      <c r="E12" s="19">
         <v>34</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="H12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="19"/>
+      <c r="M12" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="19">
+      <c r="E13" s="19">
         <v>37</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="H13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="24">
+      <c r="E14" s="24">
         <v>41</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="F14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="24"/>
+      <c r="M14" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <v>44</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="13"/>
+      <c r="M15" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <v>47</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="H16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <v>50</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="13"/>
+      <c r="M17" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <v>53</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="13"/>
+      <c r="M18" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="D19" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="27">
+      <c r="E19" s="27">
         <v>57</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="F19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="H19" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="J19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="27"/>
       <c r="K19" s="27"/>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="27">
+      <c r="E20" s="27">
         <v>60</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="F20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="27"/>
+      <c r="M20" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="19">
+      <c r="E21" s="19">
         <v>63</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="H21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="19"/>
+      <c r="M21" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="19">
+      <c r="E22" s="19">
         <v>66</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="H22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="I22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19"/>
+      <c r="M22" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="19">
+      <c r="E23" s="19">
         <v>69</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="F23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="G23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="H23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="I23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="20" t="s">
+      <c r="L23" s="19"/>
+      <c r="M23" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="19">
+      <c r="E24" s="19">
         <v>72</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="G24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="H24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="I24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="19"/>
+      <c r="M24" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="19">
+      <c r="E25" s="19">
         <v>75</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="F25" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="H25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="I25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="19"/>
+      <c r="M25" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="24">
+      <c r="E26" s="24">
         <v>79</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="I26" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="J26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="24"/>
       <c r="K26" s="24"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="24"/>
+      <c r="M26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="24">
+      <c r="E27" s="24">
         <v>82</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="24"/>
+      <c r="M27" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="13">
+      <c r="E28" s="13">
         <v>85</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E29" s="13">
         <v>88</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="13"/>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E30" s="13">
         <v>91</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="I30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="13">
+      <c r="E31" s="13">
         <v>94</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="I31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="13"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="13">
+      <c r="E32" s="13">
         <v>97</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="I32" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="13"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="D33" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="27">
+      <c r="E33" s="27">
         <v>101</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="F33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="G33" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="H33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="I33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="J33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="27"/>
       <c r="K33" s="27"/>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="27"/>
+      <c r="M33" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="19">
+      <c r="E34" s="19">
         <v>104</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="F34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="G34" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="H34" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="19"/>
+      <c r="I34" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="20" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="19">
+      <c r="E35" s="19">
         <v>107</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="F35" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="G35" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="H35" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="I35" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="19"/>
+      <c r="M35" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="14"/>
+      <c r="C36" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="24">
+      <c r="E36" s="24">
         <v>111</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="F36" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="H36" s="24" t="s">
         <v>9</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J36" s="24"/>
+      <c r="J36" s="24" t="s">
+        <v>10</v>
+      </c>
       <c r="K36" s="24"/>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="24"/>
+      <c r="M36" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E37" s="13">
         <v>114</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14"/>
+      <c r="C38" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="13">
+      <c r="E38" s="13">
         <v>117</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I38" s="13"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="13"/>
+      <c r="M38" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="D39" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="27">
+      <c r="E39" s="27">
         <v>121</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="F39" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="G39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="H39" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="I39" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="J39" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="27"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="20" t="s">
+      <c r="L39" s="27"/>
+      <c r="M39" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="D40" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="27">
+      <c r="E40" s="27">
         <v>124</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="G40" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="H40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
-      <c r="L40" s="20" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="D41" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="27">
+      <c r="E41" s="27">
         <v>128</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="G41" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="H41" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
-      <c r="L41" s="22"/>
-    </row>
-    <row r="42" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="27"/>
+      <c r="M41" s="22"/>
+    </row>
+    <row r="42" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="19">
+      <c r="E42" s="19">
         <v>130</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="G42" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="H42" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="19"/>
+      <c r="I42" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
-      <c r="L42" s="22" t="s">
+      <c r="L42" s="19"/>
+      <c r="M42" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="19">
+      <c r="E43" s="19">
         <v>134</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="F43" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="G43" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="H43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="19"/>
+      <c r="I43" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
-      <c r="L43" s="22"/>
-    </row>
-    <row r="44" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="19"/>
+      <c r="M43" s="22"/>
+    </row>
+    <row r="44" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="19">
+      <c r="E44" s="19">
         <v>136</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="F44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="G44" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="H44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="19"/>
+      <c r="I44" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
-      <c r="L44" s="22" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="14"/>
+      <c r="C45" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="D45" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="24">
+      <c r="E45" s="24">
         <v>140</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="F45" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="G45" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="H45" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="I45" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="J45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="24"/>
       <c r="K45" s="24"/>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="24"/>
+      <c r="M45" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14"/>
+      <c r="C46" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="13">
+      <c r="E46" s="13">
         <v>143</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="H46" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="13"/>
+      <c r="M46" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="13">
+      <c r="E47" s="13">
         <v>146</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="F47" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="H47" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="13"/>
+      <c r="I47" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14"/>
+      <c r="C48" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="13">
+      <c r="E48" s="13">
         <v>149</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="F48" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="H48" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="13"/>
+      <c r="M48" s="17" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="13">
+      <c r="E49" s="13">
         <v>152</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="F49" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="G49" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="H49" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="17" t="s">
+      <c r="L49" s="13"/>
+      <c r="M49" s="17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14"/>
+      <c r="C50" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="13">
+      <c r="E50" s="13">
         <v>155</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="F50" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="G50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="H50" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="13"/>
+      <c r="I50" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="13"/>
+      <c r="M50" s="17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="13">
+      <c r="E51" s="13">
         <v>158</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="G51" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="H51" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
-      <c r="L51" s="17" t="s">
+      <c r="L51" s="13"/>
+      <c r="M51" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="13">
+      <c r="E52" s="13">
         <v>161</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="F52" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="G52" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="H52" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
-      <c r="L52" s="17" t="s">
+      <c r="L52" s="13"/>
+      <c r="M52" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="D53" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D53" s="27">
+      <c r="E53" s="27">
         <v>164</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="F53" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="G53" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="H53" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="27"/>
       <c r="K53" s="27"/>
-      <c r="L53" s="23"/>
-    </row>
-    <row r="54" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="27"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="54" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="31"/>
+      <c r="C54" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="19">
+      <c r="E54" s="19">
         <v>167</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="F54" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="G54" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="H54" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="19"/>
+      <c r="I54" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
-      <c r="L54" s="23"/>
-    </row>
-    <row r="55" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L54" s="19"/>
+      <c r="M54" s="23"/>
+    </row>
+    <row r="55" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="D55" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="19">
+      <c r="E55" s="19">
         <v>170</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="F55" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="H55" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="19"/>
+      <c r="I55" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
-      <c r="L55" s="23"/>
-    </row>
-    <row r="56" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L55" s="19"/>
+      <c r="M55" s="23"/>
+    </row>
+    <row r="56" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="19">
+      <c r="E56" s="19">
         <v>173</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="F56" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="G56" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="19"/>
+      <c r="I56" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
-      <c r="L56" s="23"/>
-    </row>
-    <row r="57" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L56" s="19"/>
+      <c r="M56" s="23"/>
+    </row>
+    <row r="57" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="D57" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D57" s="19">
+      <c r="E57" s="19">
         <v>175</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="F57" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="G57" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="H57" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="20" t="s">
+      <c r="I57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
-      <c r="L57" s="23"/>
-    </row>
-    <row r="58" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="19"/>
+      <c r="M57" s="23"/>
+    </row>
+    <row r="58" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="14"/>
+      <c r="C58" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="24">
+      <c r="E58" s="24">
         <v>178</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="F58" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="G58" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="H58" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="25" t="s">
+      <c r="I58" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="24" t="s">
+      <c r="J58" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="24"/>
       <c r="K58" s="24"/>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="24"/>
+      <c r="M58" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="14"/>
+      <c r="C59" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="13">
+      <c r="E59" s="13">
         <v>181</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="F59" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F59" s="15" t="s">
+      <c r="G59" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="H59" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="13"/>
+      <c r="I59" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
-      <c r="L59" s="17" t="s">
+      <c r="L59" s="13"/>
+      <c r="M59" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14"/>
+      <c r="C60" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="13">
+      <c r="E60" s="13">
         <v>184</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="F60" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="G60" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="H60" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="13"/>
+      <c r="I60" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
-      <c r="L60" s="17" t="s">
+      <c r="L60" s="13"/>
+      <c r="M60" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D61" s="13">
+      <c r="E61" s="13">
         <v>187</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="F61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="G61" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="H61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="13"/>
+      <c r="M61" s="17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="14"/>
+      <c r="C62" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="13">
+      <c r="E62" s="13">
         <v>189</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="F62" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F62" s="15" t="s">
+      <c r="G62" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="H62" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="13"/>
+      <c r="I62" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
-      <c r="L62" s="17" t="s">
+      <c r="L62" s="13"/>
+      <c r="M62" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="14"/>
+      <c r="C63" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="D63" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D63" s="13">
+      <c r="E63" s="13">
         <v>192</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="F63" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="H63" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H63" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="13"/>
+      <c r="I63" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
-      <c r="L63" s="17" t="s">
+      <c r="L63" s="13"/>
+      <c r="M63" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="D64" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="27">
+      <c r="E64" s="27">
         <v>196</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="F64" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="G64" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="H64" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="H64" s="27" t="s">
-        <v>15</v>
-      </c>
       <c r="I64" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="27"/>
       <c r="K64" s="27"/>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="27"/>
+      <c r="M64" s="20"/>
+    </row>
+    <row r="65" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="D65" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D65" s="19">
+      <c r="E65" s="19">
         <v>199</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="F65" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="G65" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G65" s="19" t="s">
+      <c r="H65" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="I65" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="19"/>
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
-      <c r="L65" s="22"/>
-    </row>
-    <row r="66" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="19"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="19">
+      <c r="E66" s="19">
         <v>202</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="19" t="s">
+      <c r="G66" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="G66" s="19" t="s">
+      <c r="H66" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="19"/>
+      <c r="I66" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
-      <c r="L66" s="22"/>
-    </row>
-    <row r="67" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="19"/>
+      <c r="M66" s="22"/>
+    </row>
+    <row r="67" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="19">
+      <c r="E67" s="19">
         <v>205</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="G67" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="H67" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H67" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="19"/>
+      <c r="I67" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
-      <c r="L67" s="22"/>
-    </row>
-    <row r="68" spans="1:12" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L67" s="19"/>
+      <c r="M67" s="22"/>
+    </row>
+    <row r="68" spans="1:13" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="D68" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="19">
+      <c r="E68" s="19">
         <v>207</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="F68" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="G68" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G68" s="19" t="s">
+      <c r="H68" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="I68" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I68" s="19"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="19"/>
+      <c r="M68" s="22"/>
+    </row>
+    <row r="69" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="14"/>
+      <c r="C69" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="24">
+      <c r="E69" s="24">
         <v>214</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="F69" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="25" t="s">
+      <c r="G69" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="H69" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H69" s="25" t="s">
+      <c r="I69" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="J69" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="24"/>
       <c r="K69" s="24"/>
-      <c r="L69" s="15" t="s">
+      <c r="L69" s="24"/>
+      <c r="M69" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="14"/>
+      <c r="C70" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="13">
+      <c r="E70" s="13">
         <v>217</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="F70" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="G70" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G70" s="17" t="s">
+      <c r="H70" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="13"/>
+      <c r="I70" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
-      <c r="L70" s="17" t="s">
+      <c r="L70" s="13"/>
+      <c r="M70" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14"/>
+      <c r="C71" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="D71" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D71" s="13">
+      <c r="E71" s="13">
         <v>221</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="F71" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="G71" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="17" t="s">
+      <c r="H71" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="13"/>
+      <c r="I71" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
-      <c r="L71" s="17" t="s">
+      <c r="L71" s="13"/>
+      <c r="M71" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14"/>
+      <c r="C72" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="D72" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="13">
+      <c r="E72" s="13">
         <v>224</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="F72" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F72" s="15" t="s">
+      <c r="G72" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="H72" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H72" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
-      <c r="L72" s="17" t="s">
+      <c r="L72" s="13"/>
+      <c r="M72" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14"/>
+      <c r="C73" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="13">
+      <c r="E73" s="13">
         <v>227</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="F73" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="F73" s="15" t="s">
+      <c r="G73" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="H73" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H73" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
-      <c r="L73" s="17" t="s">
+      <c r="L73" s="13"/>
+      <c r="M73" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="14"/>
+      <c r="C74" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="D74" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D74" s="13">
+      <c r="E74" s="13">
         <v>230</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="F74" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F74" s="15" t="s">
+      <c r="G74" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="H74" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="H74" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="13"/>
+      <c r="I74" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
-      <c r="L74" s="17" t="s">
+      <c r="L74" s="13"/>
+      <c r="M74" s="17" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:M1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemHost\Documents\GitHub\ERP\Diccionarios Datos\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CreateScript\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1652,9 +1652,9 @@
   <dimension ref="A1:Q153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2055,7 @@
       <c r="H9" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="26">
         <v>8</v>
       </c>
       <c r="J9" t="s">
@@ -2102,7 +2102,7 @@
       <c r="H10" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="26">
         <v>9</v>
       </c>
       <c r="J10" t="s">
@@ -2146,7 +2146,7 @@
       <c r="H11" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="26">
         <v>10</v>
       </c>
       <c r="J11" t="s">
@@ -2190,7 +2190,7 @@
       <c r="H12" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="26">
         <v>11</v>
       </c>
       <c r="J12" t="s">
@@ -2234,7 +2234,7 @@
       <c r="H13" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="26">
         <v>12</v>
       </c>
       <c r="J13" t="s">
@@ -2278,7 +2278,7 @@
       <c r="H14" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="26">
         <v>13</v>
       </c>
       <c r="J14" t="s">
@@ -2322,7 +2322,7 @@
       <c r="H15" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="26">
         <v>14</v>
       </c>
       <c r="J15" t="s">
@@ -2633,7 +2633,7 @@
       <c r="H22" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="26">
         <v>21</v>
       </c>
       <c r="J22" t="s">
@@ -2680,7 +2680,7 @@
       <c r="H23" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="26">
         <v>22</v>
       </c>
       <c r="J23" t="s">
@@ -2724,7 +2724,7 @@
       <c r="H24" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="26">
         <v>23</v>
       </c>
       <c r="J24" t="s">
@@ -2768,7 +2768,7 @@
       <c r="H25" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="26">
         <v>24</v>
       </c>
       <c r="J25" t="s">
@@ -2812,7 +2812,7 @@
       <c r="H26" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="26">
         <v>25</v>
       </c>
       <c r="J26" t="s">
@@ -2856,7 +2856,7 @@
       <c r="H27" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="26">
         <v>26</v>
       </c>
       <c r="J27" t="s">
@@ -2900,7 +2900,7 @@
       <c r="H28" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="26">
         <v>27</v>
       </c>
       <c r="J28" t="s">
@@ -2944,7 +2944,7 @@
       <c r="H29" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="26">
         <v>28</v>
       </c>
       <c r="J29" t="s">
@@ -3340,7 +3340,7 @@
       <c r="H38" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="26">
         <v>37</v>
       </c>
       <c r="J38" t="s">
@@ -3387,7 +3387,7 @@
       <c r="H39" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="26">
         <v>38</v>
       </c>
       <c r="J39" t="s">
@@ -3431,7 +3431,7 @@
       <c r="H40" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="26">
         <v>39</v>
       </c>
       <c r="J40" t="s">
@@ -3475,7 +3475,7 @@
       <c r="H41" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="26">
         <v>40</v>
       </c>
       <c r="J41" t="s">
@@ -3698,7 +3698,7 @@
       <c r="H46" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="26">
         <v>45</v>
       </c>
       <c r="J46" t="s">
@@ -3745,7 +3745,7 @@
       <c r="H47" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="26">
         <v>46</v>
       </c>
       <c r="J47" t="s">
@@ -3789,7 +3789,7 @@
       <c r="H48" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="26">
         <v>47</v>
       </c>
       <c r="J48" t="s">
@@ -3830,7 +3830,7 @@
       <c r="H49" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="26">
         <v>48</v>
       </c>
       <c r="J49" t="s">
@@ -3874,7 +3874,7 @@
       <c r="H50" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="26">
         <v>49</v>
       </c>
       <c r="J50" t="s">
@@ -3915,7 +3915,7 @@
       <c r="H51" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="26">
         <v>50</v>
       </c>
       <c r="J51" t="s">
@@ -3959,7 +3959,7 @@
       <c r="H52" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="26">
         <v>51</v>
       </c>
       <c r="J52" t="s">
@@ -4270,7 +4270,7 @@
       <c r="H59" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="26">
         <v>58</v>
       </c>
       <c r="J59" t="s">
@@ -4317,7 +4317,7 @@
       <c r="H60" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="26">
         <v>59</v>
       </c>
       <c r="J60" t="s">
@@ -4361,7 +4361,7 @@
       <c r="H61" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="26">
         <v>60</v>
       </c>
       <c r="J61" t="s">
@@ -4405,7 +4405,7 @@
       <c r="H62" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="26">
         <v>61</v>
       </c>
       <c r="J62" t="s">
@@ -4449,7 +4449,7 @@
       <c r="H63" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="26">
         <v>62</v>
       </c>
       <c r="J63" t="s">
@@ -4493,7 +4493,7 @@
       <c r="H64" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="26">
         <v>63</v>
       </c>
       <c r="J64" t="s">
@@ -4537,7 +4537,7 @@
       <c r="H65" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="26">
         <v>64</v>
       </c>
       <c r="J65" t="s">
@@ -4581,7 +4581,7 @@
       <c r="H66" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="26">
         <v>65</v>
       </c>
       <c r="J66" t="s">
@@ -4625,7 +4625,7 @@
       <c r="H67" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="26">
         <v>66</v>
       </c>
       <c r="J67" t="s">
@@ -4921,7 +4921,7 @@
       <c r="H74" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="26">
         <v>73</v>
       </c>
       <c r="J74" t="s">
@@ -4968,7 +4968,7 @@
       <c r="H75" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="26">
         <v>74</v>
       </c>
       <c r="J75" t="s">
@@ -5012,7 +5012,7 @@
       <c r="H76" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="26">
         <v>75</v>
       </c>
       <c r="J76" t="s">
@@ -5056,7 +5056,7 @@
       <c r="H77" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="26">
         <v>76</v>
       </c>
       <c r="J77" t="s">
@@ -5100,7 +5100,7 @@
       <c r="H78" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="26">
         <v>77</v>
       </c>
       <c r="J78" t="s">
@@ -5144,7 +5144,7 @@
       <c r="H79" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="26">
         <v>78</v>
       </c>
       <c r="J79" t="s">
@@ -5188,7 +5188,7 @@
       <c r="H80" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="26">
         <v>79</v>
       </c>
       <c r="J80" t="s">
@@ -5484,7 +5484,7 @@
       <c r="H87" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="26">
         <v>86</v>
       </c>
       <c r="J87" t="s">
@@ -5531,7 +5531,7 @@
       <c r="H88" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="26">
         <v>87</v>
       </c>
       <c r="J88" t="s">
@@ -5575,7 +5575,7 @@
       <c r="H89" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="26">
         <v>88</v>
       </c>
       <c r="J89" t="s">
@@ -5619,7 +5619,7 @@
       <c r="H90" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="26">
         <v>89</v>
       </c>
       <c r="J90" t="s">
@@ -5663,7 +5663,7 @@
       <c r="H91" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="26">
         <v>90</v>
       </c>
       <c r="J91" t="s">
@@ -5707,7 +5707,7 @@
       <c r="H92" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="26">
         <v>91</v>
       </c>
       <c r="J92" t="s">
@@ -5751,7 +5751,7 @@
       <c r="H93" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="26">
         <v>92</v>
       </c>
       <c r="J93" t="s">
@@ -6150,7 +6150,7 @@
       <c r="H102" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="26">
         <v>101</v>
       </c>
       <c r="J102" t="s">
@@ -6197,7 +6197,7 @@
       <c r="H103" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="26">
         <v>102</v>
       </c>
       <c r="J103" t="s">
@@ -6241,7 +6241,7 @@
       <c r="H104" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="26">
         <v>103</v>
       </c>
       <c r="J104" t="s">
@@ -6285,7 +6285,7 @@
       <c r="H105" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="26">
         <v>104</v>
       </c>
       <c r="J105" t="s">
@@ -6329,7 +6329,7 @@
       <c r="H106" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="26">
         <v>105</v>
       </c>
       <c r="J106" t="s">
@@ -6373,7 +6373,7 @@
       <c r="H107" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="26">
         <v>106</v>
       </c>
       <c r="J107" t="s">
@@ -6417,7 +6417,7 @@
       <c r="H108" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="26">
         <v>107</v>
       </c>
       <c r="J108" t="s">
@@ -6461,7 +6461,7 @@
       <c r="H109" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="26">
         <v>108</v>
       </c>
       <c r="J109" t="s">
@@ -6505,7 +6505,7 @@
       <c r="H110" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="26">
         <v>109</v>
       </c>
       <c r="J110" t="s">
@@ -6549,7 +6549,7 @@
       <c r="H111" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="26">
         <v>110</v>
       </c>
       <c r="J111" t="s">
@@ -6593,7 +6593,7 @@
       <c r="H112" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="26">
         <v>111</v>
       </c>
       <c r="J112" t="s">
@@ -6637,6 +6637,9 @@
       <c r="H113" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I113" s="26">
+        <v>112</v>
+      </c>
       <c r="J113" s="28" t="s">
         <v>276</v>
       </c>
@@ -6681,6 +6684,9 @@
       <c r="H114" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I114" s="26">
+        <v>113</v>
+      </c>
       <c r="J114" s="26" t="s">
         <v>252</v>
       </c>
@@ -6722,6 +6728,9 @@
       <c r="H115" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I115" s="26">
+        <v>114</v>
+      </c>
       <c r="J115" s="26" t="s">
         <v>254</v>
       </c>
@@ -6763,6 +6772,9 @@
       <c r="H116" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I116" s="26">
+        <v>115</v>
+      </c>
       <c r="J116" s="26" t="s">
         <v>256</v>
       </c>
@@ -6804,6 +6816,9 @@
       <c r="H117" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I117" s="26">
+        <v>116</v>
+      </c>
       <c r="J117" s="26" t="s">
         <v>260</v>
       </c>
@@ -6845,6 +6860,9 @@
       <c r="H118" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I118" s="26">
+        <v>117</v>
+      </c>
       <c r="J118" s="26" t="s">
         <v>263</v>
       </c>
@@ -6886,6 +6904,9 @@
       <c r="H119" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I119" s="26">
+        <v>118</v>
+      </c>
       <c r="J119" s="26" t="s">
         <v>266</v>
       </c>
@@ -6927,6 +6948,9 @@
       <c r="H120" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I120" s="26">
+        <v>119</v>
+      </c>
       <c r="J120" s="26" t="s">
         <v>80</v>
       </c>
@@ -6968,6 +6992,9 @@
       <c r="H121" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I121" s="26">
+        <v>120</v>
+      </c>
       <c r="J121" s="26" t="s">
         <v>272</v>
       </c>
@@ -7009,6 +7036,9 @@
       <c r="H122" s="30" t="s">
         <v>249</v>
       </c>
+      <c r="I122" s="26">
+        <v>121</v>
+      </c>
       <c r="J122" s="26" t="s">
         <v>172</v>
       </c>
@@ -7050,6 +7080,9 @@
       <c r="H123" s="29" t="s">
         <v>291</v>
       </c>
+      <c r="I123" s="26">
+        <v>122</v>
+      </c>
       <c r="J123" t="s">
         <v>293</v>
       </c>
@@ -7094,6 +7127,9 @@
       <c r="H124" s="29" t="s">
         <v>291</v>
       </c>
+      <c r="I124" s="26">
+        <v>123</v>
+      </c>
       <c r="J124" t="s">
         <v>297</v>
       </c>
@@ -7135,6 +7171,9 @@
       <c r="H125" s="29" t="s">
         <v>291</v>
       </c>
+      <c r="I125" s="26">
+        <v>124</v>
+      </c>
       <c r="J125" t="s">
         <v>256</v>
       </c>
@@ -7176,6 +7215,9 @@
       <c r="H126" s="29" t="s">
         <v>291</v>
       </c>
+      <c r="I126" s="26">
+        <v>125</v>
+      </c>
       <c r="J126" t="s">
         <v>300</v>
       </c>
@@ -7217,6 +7259,9 @@
       <c r="H127" s="29" t="s">
         <v>291</v>
       </c>
+      <c r="I127" s="26">
+        <v>126</v>
+      </c>
       <c r="J127" t="s">
         <v>172</v>
       </c>
@@ -7258,6 +7303,9 @@
       <c r="H128" s="30" t="s">
         <v>305</v>
       </c>
+      <c r="I128" s="26">
+        <v>127</v>
+      </c>
       <c r="J128" s="26" t="s">
         <v>306</v>
       </c>
@@ -7302,6 +7350,9 @@
       <c r="H129" s="30" t="s">
         <v>305</v>
       </c>
+      <c r="I129" s="26">
+        <v>128</v>
+      </c>
       <c r="J129" s="26" t="s">
         <v>307</v>
       </c>
@@ -7343,6 +7394,9 @@
       <c r="H130" s="30" t="s">
         <v>305</v>
       </c>
+      <c r="I130" s="26">
+        <v>129</v>
+      </c>
       <c r="J130" s="26" t="s">
         <v>256</v>
       </c>
@@ -7384,6 +7438,9 @@
       <c r="H131" s="30" t="s">
         <v>305</v>
       </c>
+      <c r="I131" s="26">
+        <v>130</v>
+      </c>
       <c r="J131" s="26" t="s">
         <v>300</v>
       </c>
@@ -7425,6 +7482,9 @@
       <c r="H132" s="30" t="s">
         <v>305</v>
       </c>
+      <c r="I132" s="26">
+        <v>131</v>
+      </c>
       <c r="J132" s="26" t="s">
         <v>172</v>
       </c>
@@ -7466,6 +7526,9 @@
       <c r="H133" s="29" t="s">
         <v>310</v>
       </c>
+      <c r="I133" s="26">
+        <v>132</v>
+      </c>
       <c r="J133" t="s">
         <v>311</v>
       </c>
@@ -7510,6 +7573,9 @@
       <c r="H134" s="29" t="s">
         <v>310</v>
       </c>
+      <c r="I134" s="26">
+        <v>133</v>
+      </c>
       <c r="J134" t="s">
         <v>312</v>
       </c>
@@ -7551,6 +7617,9 @@
       <c r="H135" s="29" t="s">
         <v>310</v>
       </c>
+      <c r="I135" s="26">
+        <v>134</v>
+      </c>
       <c r="J135" t="s">
         <v>256</v>
       </c>
@@ -7592,6 +7661,9 @@
       <c r="H136" s="29" t="s">
         <v>310</v>
       </c>
+      <c r="I136" s="26">
+        <v>135</v>
+      </c>
       <c r="J136" t="s">
         <v>300</v>
       </c>
@@ -7633,6 +7705,9 @@
       <c r="H137" s="29" t="s">
         <v>310</v>
       </c>
+      <c r="I137" s="26">
+        <v>136</v>
+      </c>
       <c r="J137" t="s">
         <v>172</v>
       </c>
@@ -7674,6 +7749,9 @@
       <c r="H138" s="30" t="s">
         <v>317</v>
       </c>
+      <c r="I138" s="26">
+        <v>137</v>
+      </c>
       <c r="J138" s="26" t="s">
         <v>315</v>
       </c>
@@ -7718,6 +7796,9 @@
       <c r="H139" s="30" t="s">
         <v>317</v>
       </c>
+      <c r="I139" s="26">
+        <v>138</v>
+      </c>
       <c r="J139" s="26" t="s">
         <v>316</v>
       </c>
@@ -7759,6 +7840,9 @@
       <c r="H140" s="30" t="s">
         <v>317</v>
       </c>
+      <c r="I140" s="26">
+        <v>139</v>
+      </c>
       <c r="J140" s="26" t="s">
         <v>256</v>
       </c>
@@ -7800,6 +7884,9 @@
       <c r="H141" s="30" t="s">
         <v>317</v>
       </c>
+      <c r="I141" s="26">
+        <v>140</v>
+      </c>
       <c r="J141" s="26" t="s">
         <v>300</v>
       </c>
@@ -7841,6 +7928,9 @@
       <c r="H142" s="30" t="s">
         <v>317</v>
       </c>
+      <c r="I142" s="26">
+        <v>141</v>
+      </c>
       <c r="J142" s="26" t="s">
         <v>172</v>
       </c>
@@ -7882,6 +7972,9 @@
       <c r="H143" s="29" t="s">
         <v>318</v>
       </c>
+      <c r="I143" s="26">
+        <v>142</v>
+      </c>
       <c r="J143" t="s">
         <v>322</v>
       </c>
@@ -7926,6 +8019,9 @@
       <c r="H144" s="29" t="s">
         <v>318</v>
       </c>
+      <c r="I144" s="26">
+        <v>143</v>
+      </c>
       <c r="J144" t="s">
         <v>319</v>
       </c>
@@ -7967,6 +8063,9 @@
       <c r="H145" s="29" t="s">
         <v>318</v>
       </c>
+      <c r="I145" s="26">
+        <v>144</v>
+      </c>
       <c r="J145" t="s">
         <v>256</v>
       </c>
@@ -8008,6 +8107,9 @@
       <c r="H146" s="29" t="s">
         <v>318</v>
       </c>
+      <c r="I146" s="26">
+        <v>145</v>
+      </c>
       <c r="J146" t="s">
         <v>300</v>
       </c>
@@ -8049,6 +8151,9 @@
       <c r="H147" s="29" t="s">
         <v>318</v>
       </c>
+      <c r="I147" s="26">
+        <v>146</v>
+      </c>
       <c r="J147" t="s">
         <v>172</v>
       </c>
@@ -8090,6 +8195,9 @@
       <c r="H148" s="30" t="s">
         <v>323</v>
       </c>
+      <c r="I148" s="26">
+        <v>147</v>
+      </c>
       <c r="J148" s="26" t="s">
         <v>324</v>
       </c>
@@ -8134,6 +8242,9 @@
       <c r="H149" s="30" t="s">
         <v>323</v>
       </c>
+      <c r="I149" s="26">
+        <v>148</v>
+      </c>
       <c r="J149" s="26" t="s">
         <v>326</v>
       </c>
@@ -8175,6 +8286,9 @@
       <c r="H150" s="30" t="s">
         <v>323</v>
       </c>
+      <c r="I150" s="26">
+        <v>149</v>
+      </c>
       <c r="J150" s="26" t="s">
         <v>328</v>
       </c>
@@ -8213,6 +8327,9 @@
       <c r="H151" s="30" t="s">
         <v>323</v>
       </c>
+      <c r="I151" s="26">
+        <v>150</v>
+      </c>
       <c r="J151" s="26" t="s">
         <v>172</v>
       </c>
@@ -8254,6 +8371,9 @@
       <c r="H152" s="30" t="s">
         <v>323</v>
       </c>
+      <c r="I152" s="26">
+        <v>151</v>
+      </c>
       <c r="J152" s="26" t="s">
         <v>332</v>
       </c>
@@ -8294,6 +8414,9 @@
       </c>
       <c r="H153" s="30" t="s">
         <v>323</v>
+      </c>
+      <c r="I153" s="26">
+        <v>152</v>
       </c>
       <c r="J153" s="26" t="s">
         <v>103</v>

--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja10!$A$1:$E$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja11!$A$1:$E$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$Q$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$Q$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="333">
   <si>
     <t>BD</t>
   </si>
@@ -864,12 +864,6 @@
   </si>
   <si>
     <t>Nombre de quien es el representante de la Empresa</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Informacion de Empresa en estado Activo o inactivo</t>
   </si>
   <si>
     <t>Imagen</t>
@@ -1649,12 +1643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>245</v>
@@ -1795,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K3" s="26" t="s">
         <v>245</v>
@@ -2059,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K9" t="s">
         <v>245</v>
@@ -2370,7 +2364,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>245</v>
@@ -2637,7 +2631,7 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K22" t="s">
         <v>245</v>
@@ -2684,7 +2678,7 @@
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K23" t="s">
         <v>245</v>
@@ -2992,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>245</v>
@@ -3039,7 +3033,7 @@
         <v>30</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>245</v>
@@ -3083,7 +3077,7 @@
         <v>31</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>245</v>
@@ -3344,7 +3338,7 @@
         <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s">
         <v>245</v>
@@ -3523,7 +3517,7 @@
         <v>41</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K42" s="26" t="s">
         <v>245</v>
@@ -3749,7 +3743,7 @@
         <v>46</v>
       </c>
       <c r="J47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K47" t="s">
         <v>245</v>
@@ -3793,7 +3787,7 @@
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K48" t="s">
         <v>245</v>
@@ -4007,7 +4001,7 @@
         <v>52</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K53" s="26" t="s">
         <v>245</v>
@@ -4274,7 +4268,7 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K59" t="s">
         <v>245</v>
@@ -4673,7 +4667,7 @@
         <v>67</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K68" s="26" t="s">
         <v>245</v>
@@ -4717,7 +4711,7 @@
         <v>68</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K69" s="26" t="s">
         <v>245</v>
@@ -4758,7 +4752,7 @@
         <v>69</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K70" s="26" t="s">
         <v>245</v>
@@ -4925,7 +4919,7 @@
         <v>73</v>
       </c>
       <c r="J74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K74" t="s">
         <v>245</v>
@@ -5236,7 +5230,7 @@
         <v>80</v>
       </c>
       <c r="J81" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K81" s="26" t="s">
         <v>245</v>
@@ -5488,7 +5482,7 @@
         <v>86</v>
       </c>
       <c r="J87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K87" t="s">
         <v>245</v>
@@ -6641,7 +6635,7 @@
         <v>112</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K113" s="26" t="s">
         <v>245</v>
@@ -6949,22 +6943,22 @@
         <v>249</v>
       </c>
       <c r="I120" s="26">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L120" s="26" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="M120" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6993,77 +6987,80 @@
         <v>249</v>
       </c>
       <c r="I121" s="26">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="K121" s="26" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="L121" s="26" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="M121" s="26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q121" s="26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F122" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="30" t="s">
-        <v>249</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D122" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" t="s">
+        <v>170</v>
+      </c>
+      <c r="G122" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>289</v>
       </c>
       <c r="I122" s="26">
-        <v>121</v>
-      </c>
-      <c r="J122" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="K122" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="L122" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M122" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q122" s="26" t="s">
-        <v>175</v>
+        <v>122</v>
+      </c>
+      <c r="J122" t="s">
+        <v>291</v>
+      </c>
+      <c r="K122" t="s">
+        <v>292</v>
+      </c>
+      <c r="L122" t="s">
+        <v>293</v>
+      </c>
+      <c r="M122" t="s">
+        <v>8</v>
+      </c>
+      <c r="N122" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D123" t="s">
         <v>168</v>
@@ -7078,25 +7075,22 @@
         <v>8</v>
       </c>
       <c r="H123" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I123" s="26">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J123" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K123" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="L123" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="M123" t="s">
-        <v>8</v>
-      </c>
-      <c r="N123" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q123" t="s">
         <v>296</v>
@@ -7104,13 +7098,13 @@
     </row>
     <row r="124" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D124" t="s">
         <v>168</v>
@@ -7125,36 +7119,36 @@
         <v>8</v>
       </c>
       <c r="H124" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I124" s="26">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J124" t="s">
+        <v>256</v>
+      </c>
+      <c r="K124" t="s">
+        <v>211</v>
+      </c>
+      <c r="L124" t="s">
+        <v>36</v>
+      </c>
+      <c r="M124" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q124" t="s">
         <v>297</v>
-      </c>
-      <c r="K124" t="s">
-        <v>207</v>
-      </c>
-      <c r="L124" t="s">
-        <v>208</v>
-      </c>
-      <c r="M124" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D125" t="s">
         <v>168</v>
@@ -7169,36 +7163,36 @@
         <v>8</v>
       </c>
       <c r="H125" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I125" s="26">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J125" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="K125" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="L125" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M125" t="s">
         <v>12</v>
       </c>
       <c r="Q125" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D126" t="s">
         <v>168</v>
@@ -7213,80 +7207,83 @@
         <v>8</v>
       </c>
       <c r="H126" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I126" s="26">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J126" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K126" t="s">
         <v>301</v>
       </c>
       <c r="L126" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M126" t="s">
         <v>12</v>
       </c>
       <c r="Q126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="B127" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G127" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I127" s="26">
+        <v>127</v>
+      </c>
+      <c r="J127" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="K127" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D127" t="s">
-        <v>168</v>
-      </c>
-      <c r="E127" t="s">
-        <v>169</v>
-      </c>
-      <c r="F127" t="s">
-        <v>170</v>
-      </c>
-      <c r="G127" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="I127" s="26">
-        <v>126</v>
-      </c>
-      <c r="J127" t="s">
-        <v>172</v>
-      </c>
-      <c r="K127" t="s">
-        <v>303</v>
-      </c>
-      <c r="L127" t="s">
-        <v>23</v>
-      </c>
-      <c r="M127" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>175</v>
+      <c r="L127" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="M127" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N127" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q127" s="26" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B128" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D128" s="26" t="s">
         <v>168</v>
@@ -7301,39 +7298,36 @@
         <v>8</v>
       </c>
       <c r="H128" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I128" s="26">
+        <v>128</v>
+      </c>
+      <c r="J128" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="I128" s="26">
-        <v>127</v>
-      </c>
-      <c r="J128" s="26" t="s">
+      <c r="K128" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M128" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q128" s="26" t="s">
         <v>306</v>
-      </c>
-      <c r="K128" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="L128" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="M128" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N128" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q128" s="26" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B129" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D129" s="26" t="s">
         <v>168</v>
@@ -7348,36 +7342,36 @@
         <v>8</v>
       </c>
       <c r="H129" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I129" s="26">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J129" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K129" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M129" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q129" s="26" t="s">
         <v>307</v>
-      </c>
-      <c r="K129" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="L129" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="M129" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q129" s="26" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B130" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D130" s="26" t="s">
         <v>168</v>
@@ -7392,124 +7386,127 @@
         <v>8</v>
       </c>
       <c r="H130" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I130" s="26">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J130" s="26" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="K130" s="26" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="L130" s="26" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M130" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q130" s="26" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B131" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C131" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="I131" s="26">
+        <v>131</v>
+      </c>
+      <c r="J131" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K131" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L131" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M131" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q131" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D132" t="s">
+        <v>168</v>
+      </c>
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+      <c r="F132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I132" s="26">
+        <v>132</v>
+      </c>
+      <c r="J132" t="s">
+        <v>309</v>
+      </c>
+      <c r="K132" t="s">
         <v>292</v>
       </c>
-      <c r="D131" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I131" s="26">
-        <v>130</v>
-      </c>
-      <c r="J131" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="K131" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="L131" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="M131" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q131" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B132" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G132" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I132" s="26">
-        <v>131</v>
-      </c>
-      <c r="J132" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="K132" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="L132" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="M132" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q132" s="26" t="s">
-        <v>175</v>
+      <c r="L132" t="s">
+        <v>293</v>
+      </c>
+      <c r="M132" t="s">
+        <v>8</v>
+      </c>
+      <c r="N132" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
         <v>168</v>
@@ -7524,39 +7521,36 @@
         <v>8</v>
       </c>
       <c r="H133" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="I133" s="26">
+        <v>133</v>
+      </c>
+      <c r="J133" t="s">
         <v>310</v>
       </c>
-      <c r="I133" s="26">
-        <v>132</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
+        <v>207</v>
+      </c>
+      <c r="L133" t="s">
+        <v>208</v>
+      </c>
+      <c r="M133" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q133" t="s">
         <v>311</v>
-      </c>
-      <c r="K133" t="s">
-        <v>294</v>
-      </c>
-      <c r="L133" t="s">
-        <v>295</v>
-      </c>
-      <c r="M133" t="s">
-        <v>8</v>
-      </c>
-      <c r="N133" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D134" t="s">
         <v>168</v>
@@ -7571,36 +7565,36 @@
         <v>8</v>
       </c>
       <c r="H134" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I134" s="26">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J134" t="s">
+        <v>256</v>
+      </c>
+      <c r="K134" t="s">
+        <v>211</v>
+      </c>
+      <c r="L134" t="s">
+        <v>36</v>
+      </c>
+      <c r="M134" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q134" t="s">
         <v>312</v>
-      </c>
-      <c r="K134" t="s">
-        <v>207</v>
-      </c>
-      <c r="L134" t="s">
-        <v>208</v>
-      </c>
-      <c r="M134" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
         <v>168</v>
@@ -7615,36 +7609,36 @@
         <v>8</v>
       </c>
       <c r="H135" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I135" s="26">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J135" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="K135" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="L135" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M135" t="s">
         <v>12</v>
       </c>
       <c r="Q135" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
         <v>168</v>
@@ -7659,80 +7653,83 @@
         <v>8</v>
       </c>
       <c r="H136" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I136" s="26">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J136" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K136" t="s">
         <v>301</v>
       </c>
       <c r="L136" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M136" t="s">
         <v>12</v>
       </c>
       <c r="Q136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="25" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B137" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="I137" s="26">
+        <v>137</v>
+      </c>
+      <c r="J137" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="K137" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D137" t="s">
-        <v>168</v>
-      </c>
-      <c r="E137" t="s">
-        <v>169</v>
-      </c>
-      <c r="F137" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="I137" s="26">
-        <v>136</v>
-      </c>
-      <c r="J137" t="s">
-        <v>172</v>
-      </c>
-      <c r="K137" t="s">
-        <v>303</v>
-      </c>
-      <c r="L137" t="s">
-        <v>23</v>
-      </c>
-      <c r="M137" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>175</v>
+      <c r="L137" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="M137" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N137" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q137" s="26" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B138" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D138" s="26" t="s">
         <v>168</v>
@@ -7747,39 +7744,36 @@
         <v>8</v>
       </c>
       <c r="H138" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I138" s="26">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J138" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K138" s="26" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="L138" s="26" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="M138" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N138" s="26" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q138" s="26" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B139" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D139" s="26" t="s">
         <v>168</v>
@@ -7794,36 +7788,36 @@
         <v>8</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I139" s="26">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J139" s="26" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="K139" s="26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L139" s="26" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="M139" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q139" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B140" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D140" s="26" t="s">
         <v>168</v>
@@ -7838,36 +7832,36 @@
         <v>8</v>
       </c>
       <c r="H140" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I140" s="26">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J140" s="26" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="L140" s="26" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M140" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q140" s="26" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B141" s="25" t="s">
         <v>167</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D141" s="26" t="s">
         <v>168</v>
@@ -7882,80 +7876,83 @@
         <v>8</v>
       </c>
       <c r="H141" s="30" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I141" s="26">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J141" s="26" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K141" s="26" t="s">
         <v>301</v>
       </c>
       <c r="L141" s="26" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M141" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q141" s="26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B142" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C142" s="27" t="s">
+      <c r="B142" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I142" s="26">
+        <v>142</v>
+      </c>
+      <c r="J142" t="s">
+        <v>320</v>
+      </c>
+      <c r="K142" t="s">
         <v>292</v>
       </c>
-      <c r="D142" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G142" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="I142" s="26">
-        <v>141</v>
-      </c>
-      <c r="J142" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="K142" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="L142" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M142" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q142" s="26" t="s">
-        <v>175</v>
+      <c r="L142" t="s">
+        <v>293</v>
+      </c>
+      <c r="M142" t="s">
+        <v>8</v>
+      </c>
+      <c r="N142" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D143" t="s">
         <v>168</v>
@@ -7970,39 +7967,36 @@
         <v>8</v>
       </c>
       <c r="H143" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I143" s="26">
+        <v>143</v>
+      </c>
+      <c r="J143" t="s">
+        <v>317</v>
+      </c>
+      <c r="K143" t="s">
+        <v>207</v>
+      </c>
+      <c r="L143" t="s">
+        <v>208</v>
+      </c>
+      <c r="M143" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q143" t="s">
         <v>318</v>
-      </c>
-      <c r="I143" s="26">
-        <v>142</v>
-      </c>
-      <c r="J143" t="s">
-        <v>322</v>
-      </c>
-      <c r="K143" t="s">
-        <v>294</v>
-      </c>
-      <c r="L143" t="s">
-        <v>295</v>
-      </c>
-      <c r="M143" t="s">
-        <v>8</v>
-      </c>
-      <c r="N143" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D144" t="s">
         <v>168</v>
@@ -8017,36 +8011,36 @@
         <v>8</v>
       </c>
       <c r="H144" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I144" s="26">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J144" t="s">
+        <v>256</v>
+      </c>
+      <c r="K144" t="s">
+        <v>211</v>
+      </c>
+      <c r="L144" t="s">
+        <v>36</v>
+      </c>
+      <c r="M144" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q144" t="s">
         <v>319</v>
-      </c>
-      <c r="K144" t="s">
-        <v>207</v>
-      </c>
-      <c r="L144" t="s">
-        <v>208</v>
-      </c>
-      <c r="M144" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D145" t="s">
         <v>168</v>
@@ -8061,36 +8055,36 @@
         <v>8</v>
       </c>
       <c r="H145" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I145" s="26">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J145" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="K145" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="L145" t="s">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="M145" t="s">
         <v>12</v>
       </c>
       <c r="Q145" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
         <v>168</v>
@@ -8105,69 +8099,72 @@
         <v>8</v>
       </c>
       <c r="H146" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I146" s="26">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J146" t="s">
-        <v>300</v>
+        <v>172</v>
       </c>
       <c r="K146" t="s">
         <v>301</v>
       </c>
       <c r="L146" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M146" t="s">
         <v>12</v>
       </c>
       <c r="Q146" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D147" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147" t="s">
-        <v>169</v>
-      </c>
-      <c r="F147" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="29" t="s">
-        <v>318</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="30" t="s">
+        <v>321</v>
       </c>
       <c r="I147" s="26">
-        <v>146</v>
-      </c>
-      <c r="J147" t="s">
-        <v>172</v>
-      </c>
-      <c r="K147" t="s">
-        <v>303</v>
-      </c>
-      <c r="L147" t="s">
-        <v>23</v>
-      </c>
-      <c r="M147" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="J147" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="K147" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L147" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M147" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N147" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q147" s="26" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="148" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8193,25 +8190,22 @@
         <v>8</v>
       </c>
       <c r="H148" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I148" s="26">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J148" s="26" t="s">
         <v>324</v>
       </c>
       <c r="K148" s="26" t="s">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="L148" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M148" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N148" s="26" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q148" s="26" t="s">
         <v>325</v>
@@ -8240,25 +8234,22 @@
         <v>8</v>
       </c>
       <c r="H149" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I149" s="26">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J149" s="26" t="s">
         <v>326</v>
       </c>
       <c r="K149" s="26" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="L149" s="26" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="M149" s="26" t="s">
         <v>12</v>
-      </c>
-      <c r="Q149" s="26" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="150" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8284,22 +8275,25 @@
         <v>8</v>
       </c>
       <c r="H150" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I150" s="26">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J150" s="26" t="s">
-        <v>328</v>
+        <v>172</v>
       </c>
       <c r="K150" s="26" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="L150" s="26" t="s">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="M150" s="26" t="s">
         <v>12</v>
+      </c>
+      <c r="Q150" s="26" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8325,25 +8319,25 @@
         <v>8</v>
       </c>
       <c r="H151" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I151" s="26">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J151" s="26" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="K151" s="26" t="s">
-        <v>303</v>
+        <v>61</v>
       </c>
       <c r="L151" s="26" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M151" s="26" t="s">
         <v>12</v>
       </c>
       <c r="Q151" s="26" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8369,13 +8363,13 @@
         <v>8</v>
       </c>
       <c r="H152" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I152" s="26">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>332</v>
+        <v>103</v>
       </c>
       <c r="K152" s="26" t="s">
         <v>61</v>
@@ -8387,55 +8381,11 @@
         <v>12</v>
       </c>
       <c r="Q152" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B153" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C153" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D153" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F153" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G153" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="I153" s="26">
-        <v>152</v>
-      </c>
-      <c r="J153" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K153" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L153" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M153" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q153" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q153"/>
+  <autoFilter ref="A1:Q152"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8478,7 +8428,7 @@
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>245</v>
@@ -8490,7 +8440,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8509,7 +8459,7 @@
     </row>
     <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -8521,7 +8471,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8544,18 +8494,18 @@
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>12</v>
@@ -8574,7 +8524,7 @@
         <v>172</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>82</v>
@@ -8606,12 +8556,12 @@
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>61</v>
@@ -8623,7 +8573,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8632,7 +8582,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="17"/>
       <c r="E17" s="21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -8649,7 +8599,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8701,19 +8651,19 @@
     </row>
     <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8732,7 +8682,7 @@
     </row>
     <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>207</v>
@@ -8744,7 +8694,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8775,7 +8725,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8794,10 +8744,10 @@
     </row>
     <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>214</v>
@@ -8806,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8828,7 +8778,7 @@
         <v>172</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>23</v>

--- a/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
+++ b/Diccionarios Datos/Excel/Detallado de Tablas.xlsx
@@ -13,12 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja11" sheetId="13" r:id="rId2"/>
-    <sheet name="Hoja10" sheetId="12" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja10!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja11!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$1:$E$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$Q$152</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="399">
   <si>
     <t>BD</t>
   </si>
@@ -1054,9 +1054,6 @@
     <t>20002bytes</t>
   </si>
   <si>
-    <t>Valor del parámetro para la funcionalidad</t>
-  </si>
-  <si>
     <t>FechaRegistro</t>
   </si>
   <si>
@@ -1064,6 +1061,218 @@
   </si>
   <si>
     <t>Fecha de Actualización del registro</t>
+  </si>
+  <si>
+    <t>empleados</t>
+  </si>
+  <si>
+    <t>uid_codigo</t>
+  </si>
+  <si>
+    <t>Cod_empleado</t>
+  </si>
+  <si>
+    <t>nvarchar(13)</t>
+  </si>
+  <si>
+    <t>Código Asignado al Empleado</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>Información del Nombre del Empleado</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 bytes </t>
+  </si>
+  <si>
+    <t>Información de Apellidos del Empelado</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>52 bytes</t>
+  </si>
+  <si>
+    <r>
+      <t>Informaci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ón de Nacionalidad</t>
+    </r>
+  </si>
+  <si>
+    <t>Lnacimiento</t>
+  </si>
+  <si>
+    <t>Lugar de Nacimiento</t>
+  </si>
+  <si>
+    <t>FechaNacimiento</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento</t>
+  </si>
+  <si>
+    <t>EstadoCivil</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>22 bytes</t>
+  </si>
+  <si>
+    <t>Estado Civil del Empleado</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Valor Calculado en base de la fecha de nacimiento</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Genero del Empelado</t>
+  </si>
+  <si>
+    <t>CelularContacto</t>
+  </si>
+  <si>
+    <t>Informacion del celular Activo</t>
+  </si>
+  <si>
+    <t>telefonoContacto</t>
+  </si>
+  <si>
+    <t>Teléfono convencional de contacto</t>
+  </si>
+  <si>
+    <t>EmailContacto</t>
+  </si>
+  <si>
+    <t>nvarchar(80)</t>
+  </si>
+  <si>
+    <t>82bytes</t>
+  </si>
+  <si>
+    <t>Mail para contacto personal</t>
+  </si>
+  <si>
+    <t>emailEmpresa</t>
+  </si>
+  <si>
+    <t>Mail para contacto Empresarial</t>
+  </si>
+  <si>
+    <t>Tidentificacion</t>
+  </si>
+  <si>
+    <t>nvarchar(2)</t>
+  </si>
+  <si>
+    <t>Tipo de Idetificacion del Empleado</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>Información de la identificación del Empelado</t>
+  </si>
+  <si>
+    <t>NafiliacionIess</t>
+  </si>
+  <si>
+    <t>Información de la Afiliacion del Empelado</t>
+  </si>
+  <si>
+    <t>NlibretaMilitar</t>
+  </si>
+  <si>
+    <t>Información de la libreta Militar del Empelado</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>8002 bytes</t>
+  </si>
+  <si>
+    <t>Información de las Observaciones del Empelado</t>
+  </si>
+  <si>
+    <t>Identificación para relacionarlo con la marcación</t>
+  </si>
+  <si>
+    <t>bodega</t>
+  </si>
+  <si>
+    <t>uid_bodega</t>
+  </si>
+  <si>
+    <t>Varchar (36)</t>
+  </si>
+  <si>
+    <t>Identificador del campo identificador de bodega</t>
+  </si>
+  <si>
+    <t>Cod_bodega</t>
+  </si>
+  <si>
+    <t>Código de identificación asignado para la bodega</t>
+  </si>
+  <si>
+    <t>DescripcionBodega</t>
+  </si>
+  <si>
+    <t>Descripcion del campo de bodega</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>Medida en la cual se establece la capacidad de la Bodega</t>
+  </si>
+  <si>
+    <t>FechaCreacionBodega</t>
+  </si>
+  <si>
+    <t>DireccionBodega</t>
+  </si>
+  <si>
+    <t>Direccion de Bodega</t>
+  </si>
+  <si>
+    <t>Cod_Empresa</t>
+  </si>
+  <si>
+    <t>38bytes</t>
+  </si>
+  <si>
+    <t>Relacional con valores de Empresa</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1353,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,7 +1466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,10 +1525,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1317,17 +1534,56 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,12 +1899,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q152"/>
+  <dimension ref="A1:AU181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1713,314 +1969,314 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="24">
         <v>1</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="26" t="s">
+      <c r="M2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>2</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="26" t="s">
+      <c r="M3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="D4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>3</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="26" t="s">
+      <c r="M4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>4</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="26" t="s">
+      <c r="M5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="D6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>5</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="26" t="s">
+      <c r="M6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="D7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>6</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="26" t="s">
+      <c r="M7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>7</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="26" t="s">
+      <c r="M8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2046,10 +2302,10 @@
       <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>8</v>
       </c>
       <c r="J9" t="s">
@@ -2093,10 +2349,10 @@
       <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="24">
         <v>9</v>
       </c>
       <c r="J10" t="s">
@@ -2137,10 +2393,10 @@
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="24">
         <v>10</v>
       </c>
       <c r="J11" t="s">
@@ -2181,10 +2437,10 @@
       <c r="G12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="24">
         <v>11</v>
       </c>
       <c r="J12" t="s">
@@ -2225,10 +2481,10 @@
       <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="24">
         <v>12</v>
       </c>
       <c r="J13" t="s">
@@ -2269,10 +2525,10 @@
       <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="24">
         <v>13</v>
       </c>
       <c r="J14" t="s">
@@ -2313,10 +2569,10 @@
       <c r="G15" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="24">
         <v>14</v>
       </c>
       <c r="J15" t="s">
@@ -2335,270 +2591,270 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="D16" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="24">
         <v>15</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="26" t="s">
+      <c r="M16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="D17" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="24">
         <v>16</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="26" t="s">
+      <c r="M17" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="D18" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <v>17</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="26" t="s">
+      <c r="M18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="24">
         <v>18</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="26" t="s">
+      <c r="M19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="D20" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="24">
         <v>19</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="Q20" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="24">
         <v>20</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="26" t="s">
+      <c r="M21" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2624,10 +2880,10 @@
       <c r="G22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="24">
         <v>21</v>
       </c>
       <c r="J22" t="s">
@@ -2671,10 +2927,10 @@
       <c r="G23" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="24">
         <v>22</v>
       </c>
       <c r="J23" t="s">
@@ -2715,10 +2971,10 @@
       <c r="G24" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="24">
         <v>23</v>
       </c>
       <c r="J24" t="s">
@@ -2759,10 +3015,10 @@
       <c r="G25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="24">
         <v>24</v>
       </c>
       <c r="J25" t="s">
@@ -2803,10 +3059,10 @@
       <c r="G26" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="24">
         <v>25</v>
       </c>
       <c r="J26" t="s">
@@ -2847,10 +3103,10 @@
       <c r="G27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="24">
         <v>26</v>
       </c>
       <c r="J27" t="s">
@@ -2891,10 +3147,10 @@
       <c r="G28" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="24">
         <v>27</v>
       </c>
       <c r="J28" t="s">
@@ -2935,10 +3191,10 @@
       <c r="G29" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="24">
         <v>28</v>
       </c>
       <c r="J29" t="s">
@@ -2957,355 +3213,355 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="30" t="s">
+      <c r="D30" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="24">
         <v>29</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="26" t="s">
+      <c r="M30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="30" t="s">
+      <c r="D31" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="24">
         <v>30</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q31" s="26" t="s">
+      <c r="M31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="26" t="s">
+      <c r="B32" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="D32" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="24">
         <v>31</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="26" t="s">
+      <c r="M32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="D33" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="24">
         <v>32</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="30" t="s">
+      <c r="D34" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="24">
         <v>33</v>
       </c>
-      <c r="J34" s="26" t="s">
+      <c r="J34" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="K34" s="26" t="s">
+      <c r="K34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="26" t="s">
+      <c r="Q34" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="30" t="s">
+      <c r="D35" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="24">
         <v>34</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="26" t="s">
+      <c r="Q35" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="30" t="s">
+      <c r="D36" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <v>35</v>
       </c>
-      <c r="J36" s="26" t="s">
+      <c r="J36" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="K36" s="26" t="s">
+      <c r="K36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="L36" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="26" t="s">
+      <c r="Q36" s="24" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="30" t="s">
+      <c r="D37" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="24">
         <v>36</v>
       </c>
-      <c r="J37" s="26" t="s">
+      <c r="J37" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M37" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q37" s="26" t="s">
+      <c r="M37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3331,10 +3587,10 @@
       <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="24">
         <v>37</v>
       </c>
       <c r="J38" t="s">
@@ -3378,10 +3634,10 @@
       <c r="G39" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="24">
         <v>38</v>
       </c>
       <c r="J39" t="s">
@@ -3422,10 +3678,10 @@
       <c r="G40" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="24">
         <v>39</v>
       </c>
       <c r="J40" t="s">
@@ -3466,10 +3722,10 @@
       <c r="G41" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="24">
         <v>40</v>
       </c>
       <c r="J41" t="s">
@@ -3488,182 +3744,182 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="26" t="s">
+      <c r="B42" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="30" t="s">
+      <c r="D42" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="24">
         <v>41</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="K42" s="26" t="s">
+      <c r="K42" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="L42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="26" t="s">
+      <c r="M42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="30" t="s">
+      <c r="D43" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="24">
         <v>42</v>
       </c>
-      <c r="J43" s="26" t="s">
+      <c r="J43" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="K43" s="26" t="s">
+      <c r="K43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="26" t="s">
+      <c r="M43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q43" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="26" t="s">
+      <c r="B44" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="D44" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="24">
         <v>43</v>
       </c>
-      <c r="J44" s="26" t="s">
+      <c r="J44" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="L44" s="26" t="s">
+      <c r="L44" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="26" t="s">
+      <c r="Q44" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="B45" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="D45" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="I45" s="26">
+      <c r="I45" s="24">
         <v>44</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L45" s="26" t="s">
+      <c r="L45" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M45" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q45" s="26" t="s">
+      <c r="M45" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3689,10 +3945,10 @@
       <c r="G46" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="24">
         <v>45</v>
       </c>
       <c r="J46" t="s">
@@ -3736,10 +3992,10 @@
       <c r="G47" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="24">
         <v>46</v>
       </c>
       <c r="J47" t="s">
@@ -3780,10 +4036,10 @@
       <c r="G48" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="24">
         <v>47</v>
       </c>
       <c r="J48" t="s">
@@ -3821,10 +4077,10 @@
       <c r="G49" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="24">
         <v>48</v>
       </c>
       <c r="J49" t="s">
@@ -3865,10 +4121,10 @@
       <c r="G50" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="24">
         <v>49</v>
       </c>
       <c r="J50" t="s">
@@ -3906,10 +4162,10 @@
       <c r="G51" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H51" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="26">
+      <c r="I51" s="24">
         <v>50</v>
       </c>
       <c r="J51" t="s">
@@ -3950,10 +4206,10 @@
       <c r="G52" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H52" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="24">
         <v>51</v>
       </c>
       <c r="J52" t="s">
@@ -3972,270 +4228,270 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="26" t="s">
+      <c r="B53" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="30" t="s">
+      <c r="D53" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I53" s="26">
+      <c r="I53" s="24">
         <v>52</v>
       </c>
-      <c r="J53" s="26" t="s">
+      <c r="J53" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="K53" s="26" t="s">
+      <c r="K53" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L53" s="26" t="s">
+      <c r="L53" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M53" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N53" s="26" t="s">
+      <c r="M53" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q53" s="26" t="s">
+      <c r="Q53" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+    <row r="54" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="30" t="s">
+      <c r="D54" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="24">
         <v>53</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="K54" s="26" t="s">
+      <c r="K54" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M54" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q54" s="26" t="s">
+      <c r="M54" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
+    <row r="55" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C55" s="26" t="s">
+      <c r="B55" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="30" t="s">
+      <c r="D55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I55" s="26">
+      <c r="I55" s="24">
         <v>54</v>
       </c>
-      <c r="J55" s="26" t="s">
+      <c r="J55" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="K55" s="26" t="s">
+      <c r="K55" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L55" s="26" t="s">
+      <c r="L55" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="M55" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q55" s="26" t="s">
+      <c r="M55" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+    <row r="56" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="26" t="s">
+      <c r="B56" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="30" t="s">
+      <c r="D56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="26">
+      <c r="I56" s="24">
         <v>55</v>
       </c>
-      <c r="J56" s="26" t="s">
+      <c r="J56" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K56" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="M56" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q56" s="26" t="s">
+      <c r="M56" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q56" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+    <row r="57" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="26" t="s">
+      <c r="B57" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="30" t="s">
+      <c r="D57" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="24">
         <v>56</v>
       </c>
-      <c r="J57" s="26" t="s">
+      <c r="J57" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="K57" s="26" t="s">
+      <c r="K57" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="L57" s="26" t="s">
+      <c r="L57" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="M57" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q57" s="26" t="s">
+      <c r="M57" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q57" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+    <row r="58" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="26" t="s">
+      <c r="B58" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="30" t="s">
+      <c r="D58" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="I58" s="26">
+      <c r="I58" s="24">
         <v>57</v>
       </c>
-      <c r="J58" s="26" t="s">
+      <c r="J58" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K58" s="26" t="s">
+      <c r="K58" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L58" s="26" t="s">
+      <c r="L58" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M58" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q58" s="26" t="s">
+      <c r="M58" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4261,10 +4517,10 @@
       <c r="G59" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="29" t="s">
+      <c r="H59" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I59" s="26">
+      <c r="I59" s="24">
         <v>58</v>
       </c>
       <c r="J59" t="s">
@@ -4308,10 +4564,10 @@
       <c r="G60" t="s">
         <v>8</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I60" s="24">
         <v>59</v>
       </c>
       <c r="J60" t="s">
@@ -4352,10 +4608,10 @@
       <c r="G61" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="29" t="s">
+      <c r="H61" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="24">
         <v>60</v>
       </c>
       <c r="J61" t="s">
@@ -4396,10 +4652,10 @@
       <c r="G62" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="29" t="s">
+      <c r="H62" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I62" s="26">
+      <c r="I62" s="24">
         <v>61</v>
       </c>
       <c r="J62" t="s">
@@ -4440,10 +4696,10 @@
       <c r="G63" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I63" s="26">
+      <c r="I63" s="24">
         <v>62</v>
       </c>
       <c r="J63" t="s">
@@ -4484,10 +4740,10 @@
       <c r="G64" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I64" s="26">
+      <c r="I64" s="24">
         <v>63</v>
       </c>
       <c r="J64" t="s">
@@ -4528,10 +4784,10 @@
       <c r="G65" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="29" t="s">
+      <c r="H65" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I65" s="26">
+      <c r="I65" s="24">
         <v>64</v>
       </c>
       <c r="J65" t="s">
@@ -4572,10 +4828,10 @@
       <c r="G66" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="29" t="s">
+      <c r="H66" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="24">
         <v>65</v>
       </c>
       <c r="J66" t="s">
@@ -4616,10 +4872,10 @@
       <c r="G67" t="s">
         <v>8</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I67" s="24">
         <v>66</v>
       </c>
       <c r="J67" t="s">
@@ -4638,255 +4894,255 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+    <row r="68" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C68" s="26" t="s">
+      <c r="B68" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G68" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="30" t="s">
+      <c r="D68" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I68" s="26">
+      <c r="I68" s="24">
         <v>67</v>
       </c>
-      <c r="J68" s="26" t="s">
+      <c r="J68" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="K68" s="26" t="s">
+      <c r="K68" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M68" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N68" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="M68" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C69" s="26" t="s">
+      <c r="B69" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="30" t="s">
+      <c r="D69" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I69" s="26">
+      <c r="I69" s="24">
         <v>68</v>
       </c>
-      <c r="J69" s="26" t="s">
+      <c r="J69" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="K69" s="26" t="s">
+      <c r="K69" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M69" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
+      <c r="M69" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G70" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="30" t="s">
+      <c r="D70" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I70" s="24">
         <v>69</v>
       </c>
-      <c r="J70" s="26" t="s">
+      <c r="J70" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="K70" s="26" t="s">
+      <c r="K70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="L70" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M70" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="M70" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C71" s="26" t="s">
+      <c r="B71" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G71" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="30" t="s">
+      <c r="D71" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="24">
         <v>70</v>
       </c>
-      <c r="J71" s="26" t="s">
+      <c r="J71" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K71" s="26" t="s">
+      <c r="K71" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M71" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
+      <c r="M71" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="26" t="s">
+      <c r="B72" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G72" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="30" t="s">
+      <c r="D72" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I72" s="26">
+      <c r="I72" s="24">
         <v>71</v>
       </c>
-      <c r="J72" s="26" t="s">
+      <c r="J72" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K72" s="26" t="s">
+      <c r="K72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M72" s="26" t="s">
+      <c r="M72" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
+    <row r="73" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C73" s="26" t="s">
+      <c r="B73" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="30" t="s">
+      <c r="D73" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I73" s="26">
+      <c r="I73" s="24">
         <v>72</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="J73" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K73" s="26" t="s">
+      <c r="K73" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M73" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q73" s="26" t="s">
+      <c r="M73" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q73" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4912,10 +5168,10 @@
       <c r="G74" t="s">
         <v>8</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I74" s="26">
+      <c r="I74" s="24">
         <v>73</v>
       </c>
       <c r="J74" t="s">
@@ -4959,10 +5215,10 @@
       <c r="G75" t="s">
         <v>8</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="24">
         <v>74</v>
       </c>
       <c r="J75" t="s">
@@ -5003,10 +5259,10 @@
       <c r="G76" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I76" s="26">
+      <c r="I76" s="24">
         <v>75</v>
       </c>
       <c r="J76" t="s">
@@ -5047,10 +5303,10 @@
       <c r="G77" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I77" s="26">
+      <c r="I77" s="24">
         <v>76</v>
       </c>
       <c r="J77" t="s">
@@ -5091,10 +5347,10 @@
       <c r="G78" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="29" t="s">
+      <c r="H78" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I78" s="26">
+      <c r="I78" s="24">
         <v>77</v>
       </c>
       <c r="J78" t="s">
@@ -5135,10 +5391,10 @@
       <c r="G79" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="H79" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I79" s="26">
+      <c r="I79" s="24">
         <v>78</v>
       </c>
       <c r="J79" t="s">
@@ -5179,10 +5435,10 @@
       <c r="G80" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="I80" s="26">
+      <c r="I80" s="24">
         <v>79</v>
       </c>
       <c r="J80" t="s">
@@ -5201,255 +5457,255 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+    <row r="81" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C81" s="26" t="s">
+      <c r="B81" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="30" t="s">
+      <c r="D81" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I81" s="26">
+      <c r="I81" s="24">
         <v>80</v>
       </c>
-      <c r="J81" s="26" t="s">
+      <c r="J81" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="K81" s="26" t="s">
+      <c r="K81" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L81" s="26" t="s">
+      <c r="L81" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="M81" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
+      <c r="M81" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N81" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B82" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C82" s="26" t="s">
+      <c r="B82" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F82" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="30" t="s">
+      <c r="D82" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I82" s="26">
+      <c r="I82" s="24">
         <v>81</v>
       </c>
-      <c r="J82" s="26" t="s">
+      <c r="J82" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="K82" s="26" t="s">
+      <c r="K82" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L82" s="26" t="s">
+      <c r="L82" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M82" s="26" t="s">
+      <c r="M82" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+    <row r="83" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="26" t="s">
+      <c r="B83" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="30" t="s">
+      <c r="D83" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I83" s="26">
+      <c r="I83" s="24">
         <v>82</v>
       </c>
-      <c r="J83" s="26" t="s">
+      <c r="J83" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="K83" s="26" t="s">
+      <c r="K83" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="L83" s="26" t="s">
+      <c r="L83" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M83" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="M83" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B84" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" s="26" t="s">
+      <c r="B84" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D84" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="30" t="s">
+      <c r="D84" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I84" s="26">
+      <c r="I84" s="24">
         <v>83</v>
       </c>
-      <c r="J84" s="26" t="s">
+      <c r="J84" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="K84" s="26" t="s">
+      <c r="K84" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L84" s="26" t="s">
+      <c r="L84" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M84" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
+      <c r="M84" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="26" t="s">
+      <c r="B85" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G85" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="30" t="s">
+      <c r="D85" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I85" s="26">
+      <c r="I85" s="24">
         <v>84</v>
       </c>
-      <c r="J85" s="26" t="s">
+      <c r="J85" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K85" s="26" t="s">
+      <c r="K85" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L85" s="26" t="s">
+      <c r="L85" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M85" s="26" t="s">
+      <c r="M85" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
+    <row r="86" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="26" t="s">
+      <c r="B86" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F86" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G86" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="30" t="s">
+      <c r="D86" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="I86" s="26">
+      <c r="I86" s="24">
         <v>85</v>
       </c>
-      <c r="J86" s="26" t="s">
+      <c r="J86" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K86" s="26" t="s">
+      <c r="K86" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L86" s="26" t="s">
+      <c r="L86" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M86" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q86" s="26" t="s">
+      <c r="M86" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q86" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5475,10 +5731,10 @@
       <c r="G87" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I87" s="26">
+      <c r="I87" s="24">
         <v>86</v>
       </c>
       <c r="J87" t="s">
@@ -5522,10 +5778,10 @@
       <c r="G88" t="s">
         <v>8</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I88" s="26">
+      <c r="I88" s="24">
         <v>87</v>
       </c>
       <c r="J88" t="s">
@@ -5566,10 +5822,10 @@
       <c r="G89" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="29" t="s">
+      <c r="H89" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I89" s="26">
+      <c r="I89" s="24">
         <v>88</v>
       </c>
       <c r="J89" t="s">
@@ -5610,10 +5866,10 @@
       <c r="G90" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I90" s="26">
+      <c r="I90" s="24">
         <v>89</v>
       </c>
       <c r="J90" t="s">
@@ -5654,10 +5910,10 @@
       <c r="G91" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="29" t="s">
+      <c r="H91" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I91" s="26">
+      <c r="I91" s="24">
         <v>90</v>
       </c>
       <c r="J91" t="s">
@@ -5698,10 +5954,10 @@
       <c r="G92" t="s">
         <v>8</v>
       </c>
-      <c r="H92" s="29" t="s">
+      <c r="H92" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I92" s="26">
+      <c r="I92" s="24">
         <v>91</v>
       </c>
       <c r="J92" t="s">
@@ -5742,10 +5998,10 @@
       <c r="G93" t="s">
         <v>8</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I93" s="26">
+      <c r="I93" s="24">
         <v>92</v>
       </c>
       <c r="J93" t="s">
@@ -5764,358 +6020,358 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
+    <row r="94" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B94" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="27" t="s">
+      <c r="B94" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D94" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G94" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="30" t="s">
+      <c r="D94" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I94" s="26">
+      <c r="I94" s="24">
         <v>93</v>
       </c>
-      <c r="J94" s="26" t="s">
+      <c r="J94" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="K94" s="26" t="s">
+      <c r="K94" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L94" s="26" t="s">
+      <c r="L94" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M94" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q94" s="26" t="s">
+      <c r="M94" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="24" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+    <row r="95" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B95" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="27" t="s">
+      <c r="B95" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="30" t="s">
+      <c r="D95" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I95" s="26">
+      <c r="I95" s="24">
         <v>94</v>
       </c>
-      <c r="J95" s="26" t="s">
+      <c r="J95" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="K95" s="26" t="s">
+      <c r="K95" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="L95" s="26" t="s">
+      <c r="L95" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M95" s="26" t="s">
+      <c r="M95" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q95" s="26" t="s">
+      <c r="Q95" s="24" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+    <row r="96" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B96" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="27" t="s">
+      <c r="B96" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G96" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="30" t="s">
+      <c r="D96" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I96" s="26">
+      <c r="I96" s="24">
         <v>95</v>
       </c>
-      <c r="J96" s="26" t="s">
+      <c r="J96" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K96" s="26" t="s">
+      <c r="K96" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L96" s="26" t="s">
+      <c r="L96" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M96" s="26" t="s">
+      <c r="M96" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q96" s="26" t="s">
+      <c r="Q96" s="24" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="97" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+    <row r="97" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F97" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="30" t="s">
+      <c r="D97" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G97" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="24">
         <v>96</v>
       </c>
-      <c r="J97" s="26" t="s">
+      <c r="J97" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="K97" s="26" t="s">
+      <c r="K97" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="L97" s="26" t="s">
+      <c r="L97" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="M97" s="26" t="s">
+      <c r="M97" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q97" s="26" t="s">
+      <c r="Q97" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
+    <row r="98" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C98" s="27" t="s">
+      <c r="B98" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D98" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="30" t="s">
+      <c r="D98" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I98" s="26">
+      <c r="I98" s="24">
         <v>97</v>
       </c>
-      <c r="J98" s="26" t="s">
+      <c r="J98" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="K98" s="26" t="s">
+      <c r="K98" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="L98" s="26" t="s">
+      <c r="L98" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M98" s="26" t="s">
+      <c r="M98" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q98" s="26" t="s">
+      <c r="Q98" s="24" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
+    <row r="99" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B99" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="27" t="s">
+      <c r="B99" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F99" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G99" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="30" t="s">
+      <c r="D99" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G99" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I99" s="26">
+      <c r="I99" s="24">
         <v>98</v>
       </c>
-      <c r="J99" s="26" t="s">
+      <c r="J99" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K99" s="26" t="s">
+      <c r="K99" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L99" s="26" t="s">
+      <c r="L99" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M99" s="26" t="s">
+      <c r="M99" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q99" s="26" t="s">
+      <c r="Q99" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+    <row r="100" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D100" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G100" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="30" t="s">
+      <c r="D100" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I100" s="26">
+      <c r="I100" s="24">
         <v>99</v>
       </c>
-      <c r="J100" s="26" t="s">
+      <c r="J100" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K100" s="26" t="s">
+      <c r="K100" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="L100" s="26" t="s">
+      <c r="L100" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="M100" s="26" t="s">
+      <c r="M100" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="Q100" s="26" t="s">
+      <c r="Q100" s="24" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+    <row r="101" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="27" t="s">
+      <c r="B101" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F101" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="30" t="s">
+      <c r="D101" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G101" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="I101" s="26">
+      <c r="I101" s="24">
         <v>100</v>
       </c>
-      <c r="J101" s="26" t="s">
+      <c r="J101" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K101" s="26" t="s">
+      <c r="K101" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L101" s="26" t="s">
+      <c r="L101" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M101" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q101" s="26" t="s">
+      <c r="M101" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6141,10 +6397,10 @@
       <c r="G102" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I102" s="26">
+      <c r="I102" s="24">
         <v>101</v>
       </c>
       <c r="J102" t="s">
@@ -6188,10 +6444,10 @@
       <c r="G103" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="29" t="s">
+      <c r="H103" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I103" s="26">
+      <c r="I103" s="24">
         <v>102</v>
       </c>
       <c r="J103" t="s">
@@ -6232,10 +6488,10 @@
       <c r="G104" t="s">
         <v>8</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I104" s="26">
+      <c r="I104" s="24">
         <v>103</v>
       </c>
       <c r="J104" t="s">
@@ -6276,10 +6532,10 @@
       <c r="G105" t="s">
         <v>8</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I105" s="26">
+      <c r="I105" s="24">
         <v>104</v>
       </c>
       <c r="J105" t="s">
@@ -6320,10 +6576,10 @@
       <c r="G106" t="s">
         <v>8</v>
       </c>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I106" s="26">
+      <c r="I106" s="24">
         <v>105</v>
       </c>
       <c r="J106" t="s">
@@ -6364,10 +6620,10 @@
       <c r="G107" t="s">
         <v>8</v>
       </c>
-      <c r="H107" s="29" t="s">
+      <c r="H107" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I107" s="26">
+      <c r="I107" s="24">
         <v>106</v>
       </c>
       <c r="J107" t="s">
@@ -6408,10 +6664,10 @@
       <c r="G108" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I108" s="26">
+      <c r="I108" s="24">
         <v>107</v>
       </c>
       <c r="J108" t="s">
@@ -6452,10 +6708,10 @@
       <c r="G109" t="s">
         <v>8</v>
       </c>
-      <c r="H109" s="29" t="s">
+      <c r="H109" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="24">
         <v>108</v>
       </c>
       <c r="J109" t="s">
@@ -6496,10 +6752,10 @@
       <c r="G110" t="s">
         <v>8</v>
       </c>
-      <c r="H110" s="29" t="s">
+      <c r="H110" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I110" s="26">
+      <c r="I110" s="24">
         <v>109</v>
       </c>
       <c r="J110" t="s">
@@ -6540,10 +6796,10 @@
       <c r="G111" t="s">
         <v>8</v>
       </c>
-      <c r="H111" s="29" t="s">
+      <c r="H111" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I111" s="26">
+      <c r="I111" s="24">
         <v>110</v>
       </c>
       <c r="J111" t="s">
@@ -6584,10 +6840,10 @@
       <c r="G112" t="s">
         <v>8</v>
       </c>
-      <c r="H112" s="29" t="s">
+      <c r="H112" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I112" s="26">
+      <c r="I112" s="24">
         <v>111</v>
       </c>
       <c r="J112" t="s">
@@ -6606,402 +6862,402 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+    <row r="113" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B113" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C113" s="27" t="s">
+      <c r="B113" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C113" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G113" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="30" t="s">
+      <c r="D113" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I113" s="26">
+      <c r="I113" s="24">
         <v>112</v>
       </c>
-      <c r="J113" s="28" t="s">
+      <c r="J113" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="K113" s="26" t="s">
+      <c r="K113" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L113" s="26" t="s">
+      <c r="L113" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M113" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N113" s="26" t="s">
+      <c r="M113" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N113" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q113" s="26" t="s">
+      <c r="Q113" s="24" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="114" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
+    <row r="114" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B114" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C114" s="27" t="s">
+      <c r="B114" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D114" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="30" t="s">
+      <c r="D114" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I114" s="26">
+      <c r="I114" s="24">
         <v>113</v>
       </c>
-      <c r="J114" s="26" t="s">
+      <c r="J114" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="K114" s="26" t="s">
+      <c r="K114" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L114" s="26" t="s">
+      <c r="L114" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M114" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q114" s="26" t="s">
+      <c r="M114" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q114" s="24" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
+    <row r="115" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C115" s="27" t="s">
+      <c r="B115" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D115" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G115" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="30" t="s">
+      <c r="D115" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I115" s="26">
+      <c r="I115" s="24">
         <v>114</v>
       </c>
-      <c r="J115" s="26" t="s">
+      <c r="J115" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="K115" s="26" t="s">
+      <c r="K115" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L115" s="26" t="s">
+      <c r="L115" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M115" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q115" s="26" t="s">
+      <c r="M115" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q115" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
+    <row r="116" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B116" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C116" s="27" t="s">
+      <c r="B116" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D116" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F116" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G116" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="30" t="s">
+      <c r="D116" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G116" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I116" s="26">
+      <c r="I116" s="24">
         <v>115</v>
       </c>
-      <c r="J116" s="26" t="s">
+      <c r="J116" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="K116" s="26" t="s">
+      <c r="K116" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="L116" s="26" t="s">
+      <c r="L116" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="M116" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q116" s="26" t="s">
+      <c r="M116" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q116" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+    <row r="117" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B117" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C117" s="27" t="s">
+      <c r="B117" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D117" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G117" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="30" t="s">
+      <c r="D117" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G117" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I117" s="26">
+      <c r="I117" s="24">
         <v>116</v>
       </c>
-      <c r="J117" s="26" t="s">
+      <c r="J117" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="K117" s="26" t="s">
+      <c r="K117" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="L117" s="26" t="s">
+      <c r="L117" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M117" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q117" s="26" t="s">
+      <c r="M117" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q117" s="24" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
+    <row r="118" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C118" s="27" t="s">
+      <c r="B118" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D118" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="30" t="s">
+      <c r="D118" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I118" s="26">
+      <c r="I118" s="24">
         <v>117</v>
       </c>
-      <c r="J118" s="26" t="s">
+      <c r="J118" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="K118" s="26" t="s">
+      <c r="K118" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="L118" s="26" t="s">
+      <c r="L118" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M118" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q118" s="26" t="s">
+      <c r="M118" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q118" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+    <row r="119" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C119" s="27" t="s">
+      <c r="B119" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D119" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G119" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="30" t="s">
+      <c r="D119" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G119" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I119" s="26">
+      <c r="I119" s="24">
         <v>118</v>
       </c>
-      <c r="J119" s="26" t="s">
+      <c r="J119" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="K119" s="26" t="s">
+      <c r="K119" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="L119" s="26" t="s">
+      <c r="L119" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="M119" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q119" s="26" t="s">
+      <c r="M119" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q119" s="24" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
+    <row r="120" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B120" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C120" s="27" t="s">
+      <c r="B120" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D120" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F120" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G120" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="30" t="s">
+      <c r="D120" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E120" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G120" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I120" s="26">
+      <c r="I120" s="24">
         <v>120</v>
       </c>
-      <c r="J120" s="26" t="s">
+      <c r="J120" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="K120" s="26" t="s">
+      <c r="K120" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="L120" s="26" t="s">
+      <c r="L120" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="M120" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q120" s="26" t="s">
+      <c r="M120" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q120" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
+    <row r="121" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C121" s="27" t="s">
+      <c r="B121" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="30" t="s">
+      <c r="D121" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G121" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="I121" s="26">
+      <c r="I121" s="24">
         <v>121</v>
       </c>
-      <c r="J121" s="26" t="s">
+      <c r="J121" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K121" s="26" t="s">
+      <c r="K121" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L121" s="26" t="s">
+      <c r="L121" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M121" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q121" s="26" t="s">
+      <c r="M121" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q121" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7027,10 +7283,10 @@
       <c r="G122" t="s">
         <v>8</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I122" s="26">
+      <c r="I122" s="24">
         <v>122</v>
       </c>
       <c r="J122" t="s">
@@ -7074,10 +7330,10 @@
       <c r="G123" t="s">
         <v>8</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I123" s="26">
+      <c r="I123" s="24">
         <v>123</v>
       </c>
       <c r="J123" t="s">
@@ -7118,10 +7374,10 @@
       <c r="G124" t="s">
         <v>8</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I124" s="26">
+      <c r="I124" s="24">
         <v>124</v>
       </c>
       <c r="J124" t="s">
@@ -7162,10 +7418,10 @@
       <c r="G125" t="s">
         <v>8</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I125" s="26">
+      <c r="I125" s="24">
         <v>125</v>
       </c>
       <c r="J125" t="s">
@@ -7206,10 +7462,10 @@
       <c r="G126" t="s">
         <v>8</v>
       </c>
-      <c r="H126" s="29" t="s">
+      <c r="H126" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="I126" s="26">
+      <c r="I126" s="24">
         <v>126</v>
       </c>
       <c r="J126" t="s">
@@ -7228,226 +7484,226 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="s">
+    <row r="127" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C127" s="27" t="s">
+      <c r="B127" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C127" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D127" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F127" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G127" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="30" t="s">
+      <c r="D127" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="I127" s="26">
+      <c r="I127" s="24">
         <v>127</v>
       </c>
-      <c r="J127" s="26" t="s">
+      <c r="J127" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="K127" s="26" t="s">
+      <c r="K127" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L127" s="26" t="s">
+      <c r="L127" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="M127" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N127" s="26" t="s">
+      <c r="M127" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N127" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q127" s="26" t="s">
+      <c r="Q127" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
+    <row r="128" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C128" s="27" t="s">
+      <c r="B128" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D128" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F128" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G128" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="30" t="s">
+      <c r="D128" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F128" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="I128" s="26">
+      <c r="I128" s="24">
         <v>128</v>
       </c>
-      <c r="J128" s="26" t="s">
+      <c r="J128" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="K128" s="26" t="s">
+      <c r="K128" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="L128" s="26" t="s">
+      <c r="L128" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q128" s="26" t="s">
+      <c r="M128" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q128" s="24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
+    <row r="129" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B129" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C129" s="27" t="s">
+      <c r="B129" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D129" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F129" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G129" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="30" t="s">
+      <c r="D129" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="I129" s="26">
+      <c r="I129" s="24">
         <v>129</v>
       </c>
-      <c r="J129" s="26" t="s">
+      <c r="J129" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="K129" s="26" t="s">
+      <c r="K129" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L129" s="26" t="s">
+      <c r="L129" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M129" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q129" s="26" t="s">
+      <c r="M129" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q129" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="130" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
+    <row r="130" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="27" t="s">
+      <c r="B130" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D130" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G130" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="30" t="s">
+      <c r="D130" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E130" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="I130" s="26">
+      <c r="I130" s="24">
         <v>130</v>
       </c>
-      <c r="J130" s="26" t="s">
+      <c r="J130" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="K130" s="26" t="s">
+      <c r="K130" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L130" s="26" t="s">
+      <c r="L130" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="M130" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q130" s="26" t="s">
+      <c r="M130" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q130" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
+    <row r="131" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B131" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C131" s="27" t="s">
+      <c r="B131" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D131" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="30" t="s">
+      <c r="D131" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="I131" s="26">
+      <c r="I131" s="24">
         <v>131</v>
       </c>
-      <c r="J131" s="26" t="s">
+      <c r="J131" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K131" s="26" t="s">
+      <c r="K131" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="L131" s="26" t="s">
+      <c r="L131" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M131" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q131" s="26" t="s">
+      <c r="M131" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q131" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7473,10 +7729,10 @@
       <c r="G132" t="s">
         <v>8</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I132" s="26">
+      <c r="I132" s="24">
         <v>132</v>
       </c>
       <c r="J132" t="s">
@@ -7520,10 +7776,10 @@
       <c r="G133" t="s">
         <v>8</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="H133" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I133" s="26">
+      <c r="I133" s="24">
         <v>133</v>
       </c>
       <c r="J133" t="s">
@@ -7564,10 +7820,10 @@
       <c r="G134" t="s">
         <v>8</v>
       </c>
-      <c r="H134" s="29" t="s">
+      <c r="H134" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I134" s="26">
+      <c r="I134" s="24">
         <v>134</v>
       </c>
       <c r="J134" t="s">
@@ -7608,10 +7864,10 @@
       <c r="G135" t="s">
         <v>8</v>
       </c>
-      <c r="H135" s="29" t="s">
+      <c r="H135" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I135" s="26">
+      <c r="I135" s="24">
         <v>135</v>
       </c>
       <c r="J135" t="s">
@@ -7652,10 +7908,10 @@
       <c r="G136" t="s">
         <v>8</v>
       </c>
-      <c r="H136" s="29" t="s">
+      <c r="H136" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I136" s="26">
+      <c r="I136" s="24">
         <v>136</v>
       </c>
       <c r="J136" t="s">
@@ -7674,226 +7930,226 @@
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="25" t="s">
+    <row r="137" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B137" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C137" s="27" t="s">
+      <c r="B137" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C137" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D137" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F137" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G137" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="30" t="s">
+      <c r="D137" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="I137" s="26">
+      <c r="I137" s="24">
         <v>137</v>
       </c>
-      <c r="J137" s="26" t="s">
+      <c r="J137" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="K137" s="26" t="s">
+      <c r="K137" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="L137" s="26" t="s">
+      <c r="L137" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="M137" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N137" s="26" t="s">
+      <c r="M137" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N137" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q137" s="26" t="s">
+      <c r="Q137" s="24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="25" t="s">
+    <row r="138" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B138" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="27" t="s">
+      <c r="B138" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D138" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F138" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G138" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="30" t="s">
+      <c r="D138" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F138" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G138" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="I138" s="26">
+      <c r="I138" s="24">
         <v>138</v>
       </c>
-      <c r="J138" s="26" t="s">
+      <c r="J138" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="K138" s="26" t="s">
+      <c r="K138" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="L138" s="26" t="s">
+      <c r="L138" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M138" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q138" s="26" t="s">
+      <c r="M138" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q138" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+    <row r="139" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B139" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C139" s="27" t="s">
+      <c r="B139" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C139" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D139" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G139" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="30" t="s">
+      <c r="D139" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="I139" s="26">
+      <c r="I139" s="24">
         <v>139</v>
       </c>
-      <c r="J139" s="26" t="s">
+      <c r="J139" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="K139" s="26" t="s">
+      <c r="K139" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="L139" s="26" t="s">
+      <c r="L139" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="M139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q139" s="26" t="s">
+      <c r="M139" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q139" s="24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B140" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" s="27" t="s">
+      <c r="B140" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D140" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="30" t="s">
+      <c r="D140" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="I140" s="26">
+      <c r="I140" s="24">
         <v>140</v>
       </c>
-      <c r="J140" s="26" t="s">
+      <c r="J140" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="K140" s="26" t="s">
+      <c r="K140" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="L140" s="26" t="s">
+      <c r="L140" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="M140" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q140" s="26" t="s">
+      <c r="M140" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q140" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="25" t="s">
+    <row r="141" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="B141" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C141" s="27" t="s">
+      <c r="B141" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D141" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G141" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" s="30" t="s">
+      <c r="D141" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="I141" s="26">
+      <c r="I141" s="24">
         <v>141</v>
       </c>
-      <c r="J141" s="26" t="s">
+      <c r="J141" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K141" s="26" t="s">
+      <c r="K141" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="L141" s="26" t="s">
+      <c r="L141" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M141" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q141" s="26" t="s">
+      <c r="M141" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q141" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -7919,10 +8175,10 @@
       <c r="G142" t="s">
         <v>8</v>
       </c>
-      <c r="H142" s="29" t="s">
+      <c r="H142" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I142" s="26">
+      <c r="I142" s="24">
         <v>142</v>
       </c>
       <c r="J142" t="s">
@@ -7966,10 +8222,10 @@
       <c r="G143" t="s">
         <v>8</v>
       </c>
-      <c r="H143" s="29" t="s">
+      <c r="H143" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I143" s="26">
+      <c r="I143" s="24">
         <v>143</v>
       </c>
       <c r="J143" t="s">
@@ -8010,10 +8266,10 @@
       <c r="G144" t="s">
         <v>8</v>
       </c>
-      <c r="H144" s="29" t="s">
+      <c r="H144" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I144" s="26">
+      <c r="I144" s="24">
         <v>144</v>
       </c>
       <c r="J144" t="s">
@@ -8054,10 +8310,10 @@
       <c r="G145" t="s">
         <v>8</v>
       </c>
-      <c r="H145" s="29" t="s">
+      <c r="H145" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I145" s="26">
+      <c r="I145" s="24">
         <v>145</v>
       </c>
       <c r="J145" t="s">
@@ -8098,10 +8354,10 @@
       <c r="G146" t="s">
         <v>8</v>
       </c>
-      <c r="H146" s="29" t="s">
+      <c r="H146" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="I146" s="26">
+      <c r="I146" s="24">
         <v>146</v>
       </c>
       <c r="J146" t="s">
@@ -8120,269 +8376,1742 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="25" t="s">
+    <row r="147" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B147" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C147" s="26" t="s">
+      <c r="B147" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D147" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="30" t="s">
+      <c r="D147" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="I147" s="26">
+      <c r="I147" s="24">
         <v>147</v>
       </c>
-      <c r="J147" s="26" t="s">
+      <c r="J147" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="K147" s="26" t="s">
+      <c r="K147" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L147" s="26" t="s">
+      <c r="L147" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M147" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="N147" s="26" t="s">
+      <c r="M147" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N147" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Q147" s="26" t="s">
+      <c r="Q147" s="24" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="148" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="25" t="s">
+    <row r="148" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B148" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C148" s="26" t="s">
+      <c r="B148" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D148" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F148" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="30" t="s">
+      <c r="D148" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="I148" s="26">
+      <c r="I148" s="24">
         <v>148</v>
       </c>
-      <c r="J148" s="26" t="s">
+      <c r="J148" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="K148" s="26" t="s">
+      <c r="K148" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L148" s="26" t="s">
+      <c r="L148" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M148" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q148" s="26" t="s">
+      <c r="M148" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q148" s="24" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="25" t="s">
+    <row r="149" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C149" s="26" t="s">
+      <c r="B149" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D149" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G149" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="30" t="s">
+      <c r="D149" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="I149" s="26">
+      <c r="I149" s="24">
         <v>149</v>
       </c>
-      <c r="J149" s="26" t="s">
+      <c r="J149" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="K149" s="26" t="s">
+      <c r="K149" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="L149" s="26" t="s">
+      <c r="L149" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="M149" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="25" t="s">
+      <c r="M149" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B150" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C150" s="26" t="s">
+      <c r="B150" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D150" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F150" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" s="30" t="s">
+      <c r="D150" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="I150" s="26">
+      <c r="I150" s="24">
         <v>150</v>
       </c>
-      <c r="J150" s="26" t="s">
+      <c r="J150" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="K150" s="26" t="s">
+      <c r="K150" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="L150" s="26" t="s">
+      <c r="L150" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="M150" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q150" s="26" t="s">
+      <c r="M150" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q150" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="25" t="s">
+    <row r="151" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B151" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C151" s="26" t="s">
+      <c r="B151" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D151" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G151" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="30" t="s">
+      <c r="D151" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="I151" s="26">
+      <c r="I151" s="24">
         <v>151</v>
       </c>
-      <c r="J151" s="26" t="s">
+      <c r="J151" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K151" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L151" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M151" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q151" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="K151" s="26" t="s">
+    </row>
+    <row r="152" spans="1:17" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="I152" s="24">
+        <v>152</v>
+      </c>
+      <c r="J152" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K152" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="L151" s="26" t="s">
+      <c r="L152" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="M151" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q151" s="26" t="s">
+      <c r="M152" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q152" s="24" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="152" spans="1:17" s="26" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B152" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="C152" s="26" t="s">
+    <row r="153" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D153" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" t="s">
+        <v>169</v>
+      </c>
+      <c r="F153" t="s">
+        <v>170</v>
+      </c>
+      <c r="G153" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I153" s="24">
+        <v>153</v>
+      </c>
+      <c r="J153" t="s">
+        <v>333</v>
+      </c>
+      <c r="K153" t="s">
+        <v>292</v>
+      </c>
+      <c r="L153" t="s">
+        <v>293</v>
+      </c>
+      <c r="M153" t="s">
+        <v>8</v>
+      </c>
+      <c r="N153" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D154" t="s">
+        <v>168</v>
+      </c>
+      <c r="E154" t="s">
+        <v>169</v>
+      </c>
+      <c r="F154" t="s">
+        <v>170</v>
+      </c>
+      <c r="G154" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I154" s="24">
+        <v>154</v>
+      </c>
+      <c r="J154" t="s">
+        <v>334</v>
+      </c>
+      <c r="K154" t="s">
+        <v>335</v>
+      </c>
+      <c r="L154" t="s">
+        <v>228</v>
+      </c>
+      <c r="M154" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D155" t="s">
+        <v>168</v>
+      </c>
+      <c r="E155" t="s">
+        <v>169</v>
+      </c>
+      <c r="F155" t="s">
+        <v>170</v>
+      </c>
+      <c r="G155" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I155" s="24">
+        <v>155</v>
+      </c>
+      <c r="J155" t="s">
+        <v>337</v>
+      </c>
+      <c r="K155" t="s">
+        <v>338</v>
+      </c>
+      <c r="L155" t="s">
+        <v>36</v>
+      </c>
+      <c r="M155" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D156" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" t="s">
+        <v>169</v>
+      </c>
+      <c r="F156" t="s">
+        <v>170</v>
+      </c>
+      <c r="G156" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I156" s="24">
+        <v>156</v>
+      </c>
+      <c r="J156" t="s">
+        <v>340</v>
+      </c>
+      <c r="K156" t="s">
+        <v>338</v>
+      </c>
+      <c r="L156" t="s">
+        <v>341</v>
+      </c>
+      <c r="M156" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D157" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" t="s">
+        <v>169</v>
+      </c>
+      <c r="F157" t="s">
+        <v>170</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I157" s="24">
+        <v>157</v>
+      </c>
+      <c r="J157" t="s">
+        <v>343</v>
+      </c>
+      <c r="K157" t="s">
+        <v>344</v>
+      </c>
+      <c r="L157" t="s">
+        <v>345</v>
+      </c>
+      <c r="M157" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D158" t="s">
+        <v>168</v>
+      </c>
+      <c r="E158" t="s">
+        <v>169</v>
+      </c>
+      <c r="F158" t="s">
+        <v>170</v>
+      </c>
+      <c r="G158" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I158" s="24">
+        <v>158</v>
+      </c>
+      <c r="J158" t="s">
+        <v>347</v>
+      </c>
+      <c r="K158" t="s">
+        <v>344</v>
+      </c>
+      <c r="L158" t="s">
+        <v>345</v>
+      </c>
+      <c r="M158" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D159" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" t="s">
+        <v>169</v>
+      </c>
+      <c r="F159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I159" s="24">
+        <v>159</v>
+      </c>
+      <c r="J159" t="s">
+        <v>349</v>
+      </c>
+      <c r="K159" t="s">
+        <v>61</v>
+      </c>
+      <c r="L159" t="s">
+        <v>23</v>
+      </c>
+      <c r="M159" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D160" t="s">
+        <v>168</v>
+      </c>
+      <c r="E160" t="s">
+        <v>169</v>
+      </c>
+      <c r="F160" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I160" s="24">
+        <v>160</v>
+      </c>
+      <c r="J160" t="s">
+        <v>351</v>
+      </c>
+      <c r="K160" t="s">
+        <v>352</v>
+      </c>
+      <c r="L160" t="s">
+        <v>353</v>
+      </c>
+      <c r="M160" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D161" t="s">
+        <v>168</v>
+      </c>
+      <c r="E161" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" t="s">
+        <v>170</v>
+      </c>
+      <c r="G161" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I161" s="24">
+        <v>161</v>
+      </c>
+      <c r="J161" t="s">
+        <v>355</v>
+      </c>
+      <c r="K161" t="s">
+        <v>356</v>
+      </c>
+      <c r="L161" t="s">
+        <v>235</v>
+      </c>
+      <c r="M161" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" t="s">
+        <v>168</v>
+      </c>
+      <c r="E162" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" t="s">
+        <v>170</v>
+      </c>
+      <c r="G162" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I162" s="24">
+        <v>162</v>
+      </c>
+      <c r="J162" t="s">
+        <v>358</v>
+      </c>
+      <c r="K162" t="s">
+        <v>352</v>
+      </c>
+      <c r="L162" t="s">
+        <v>88</v>
+      </c>
+      <c r="M162" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="163" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" t="s">
+        <v>170</v>
+      </c>
+      <c r="G163" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I163" s="24">
+        <v>163</v>
+      </c>
+      <c r="J163" t="s">
+        <v>360</v>
+      </c>
+      <c r="K163" t="s">
+        <v>352</v>
+      </c>
+      <c r="L163" t="s">
+        <v>88</v>
+      </c>
+      <c r="M163" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="164" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D164" t="s">
+        <v>168</v>
+      </c>
+      <c r="E164" t="s">
+        <v>169</v>
+      </c>
+      <c r="F164" t="s">
+        <v>170</v>
+      </c>
+      <c r="G164" t="s">
+        <v>8</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I164" s="24">
+        <v>164</v>
+      </c>
+      <c r="J164" t="s">
+        <v>362</v>
+      </c>
+      <c r="K164" t="s">
+        <v>352</v>
+      </c>
+      <c r="L164" t="s">
+        <v>88</v>
+      </c>
+      <c r="M164" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="165" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D165" t="s">
+        <v>168</v>
+      </c>
+      <c r="E165" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" t="s">
+        <v>170</v>
+      </c>
+      <c r="G165" t="s">
+        <v>8</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I165" s="24">
+        <v>165</v>
+      </c>
+      <c r="J165" t="s">
+        <v>364</v>
+      </c>
+      <c r="K165" t="s">
+        <v>365</v>
+      </c>
+      <c r="L165" t="s">
+        <v>366</v>
+      </c>
+      <c r="M165" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="166" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D166" t="s">
+        <v>168</v>
+      </c>
+      <c r="E166" t="s">
+        <v>169</v>
+      </c>
+      <c r="F166" t="s">
+        <v>170</v>
+      </c>
+      <c r="G166" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I166" s="24">
+        <v>166</v>
+      </c>
+      <c r="J166" t="s">
+        <v>368</v>
+      </c>
+      <c r="K166" t="s">
+        <v>365</v>
+      </c>
+      <c r="L166" t="s">
+        <v>366</v>
+      </c>
+      <c r="M166" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="167" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D167" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" t="s">
+        <v>170</v>
+      </c>
+      <c r="G167" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I167" s="24">
+        <v>167</v>
+      </c>
+      <c r="J167" t="s">
+        <v>370</v>
+      </c>
+      <c r="K167" t="s">
+        <v>371</v>
+      </c>
+      <c r="L167" t="s">
+        <v>7</v>
+      </c>
+      <c r="M167" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D168" t="s">
+        <v>168</v>
+      </c>
+      <c r="E168" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" t="s">
+        <v>170</v>
+      </c>
+      <c r="G168" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I168" s="24">
+        <v>168</v>
+      </c>
+      <c r="J168" t="s">
+        <v>373</v>
+      </c>
+      <c r="K168" t="s">
+        <v>352</v>
+      </c>
+      <c r="L168" t="s">
+        <v>353</v>
+      </c>
+      <c r="M168" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="169" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D169" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" t="s">
+        <v>169</v>
+      </c>
+      <c r="F169" t="s">
+        <v>170</v>
+      </c>
+      <c r="G169" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I169" s="24">
+        <v>169</v>
+      </c>
+      <c r="J169" t="s">
+        <v>375</v>
+      </c>
+      <c r="K169" t="s">
+        <v>352</v>
+      </c>
+      <c r="L169" t="s">
+        <v>353</v>
+      </c>
+      <c r="M169" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="170" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D170" t="s">
+        <v>168</v>
+      </c>
+      <c r="E170" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" t="s">
+        <v>170</v>
+      </c>
+      <c r="G170" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I170" s="24">
+        <v>170</v>
+      </c>
+      <c r="J170" t="s">
+        <v>377</v>
+      </c>
+      <c r="K170" t="s">
+        <v>352</v>
+      </c>
+      <c r="L170" t="s">
+        <v>353</v>
+      </c>
+      <c r="M170" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D171" t="s">
+        <v>168</v>
+      </c>
+      <c r="E171" t="s">
+        <v>169</v>
+      </c>
+      <c r="F171" t="s">
+        <v>170</v>
+      </c>
+      <c r="G171" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I171" s="24">
+        <v>171</v>
+      </c>
+      <c r="J171" t="s">
+        <v>379</v>
+      </c>
+      <c r="K171" t="s">
+        <v>188</v>
+      </c>
+      <c r="L171" t="s">
+        <v>380</v>
+      </c>
+      <c r="M171" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D172" t="s">
+        <v>168</v>
+      </c>
+      <c r="E172" t="s">
+        <v>169</v>
+      </c>
+      <c r="F172" t="s">
+        <v>170</v>
+      </c>
+      <c r="G172" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I172" s="24">
+        <v>172</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+      <c r="K172" t="s">
+        <v>292</v>
+      </c>
+      <c r="L172" t="s">
+        <v>293</v>
+      </c>
+      <c r="M172" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D173" t="s">
+        <v>168</v>
+      </c>
+      <c r="E173" t="s">
+        <v>169</v>
+      </c>
+      <c r="F173" t="s">
+        <v>170</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I173" s="24">
+        <v>173</v>
+      </c>
+      <c r="J173" t="s">
+        <v>172</v>
+      </c>
+      <c r="K173" t="s">
+        <v>301</v>
+      </c>
+      <c r="L173" t="s">
+        <v>23</v>
+      </c>
+      <c r="M173" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:47" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E174" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F174" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G174" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I174" s="24">
+        <v>174</v>
+      </c>
+      <c r="J174" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="L174" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M174" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q174" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="175" spans="1:47" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E175" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G175" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I175" s="24">
+        <v>175</v>
+      </c>
+      <c r="J175" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="K175" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L175" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M175" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q175" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E176" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G176" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I176" s="24">
+        <v>176</v>
+      </c>
+      <c r="J176" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="K176" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L176" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M176" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N176" s="24"/>
+      <c r="O176" s="24"/>
+      <c r="P176" s="24"/>
+      <c r="Q176" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="R176" s="24"/>
+      <c r="S176" s="24"/>
+      <c r="T176" s="24"/>
+      <c r="U176" s="24"/>
+      <c r="V176" s="24"/>
+      <c r="W176" s="24"/>
+      <c r="X176" s="24"/>
+      <c r="Y176" s="24"/>
+      <c r="Z176" s="24"/>
+      <c r="AA176" s="24"/>
+      <c r="AB176" s="24"/>
+      <c r="AC176" s="24"/>
+      <c r="AD176" s="24"/>
+      <c r="AE176" s="24"/>
+      <c r="AF176" s="24"/>
+      <c r="AG176" s="24"/>
+      <c r="AH176" s="24"/>
+      <c r="AI176" s="24"/>
+      <c r="AJ176" s="24"/>
+      <c r="AK176" s="24"/>
+      <c r="AL176" s="24"/>
+      <c r="AM176" s="24"/>
+      <c r="AN176" s="24"/>
+      <c r="AO176" s="24"/>
+      <c r="AP176" s="24"/>
+      <c r="AQ176" s="24"/>
+      <c r="AR176" s="24"/>
+      <c r="AS176" s="24"/>
+      <c r="AT176" s="24"/>
+      <c r="AU176" s="24"/>
+    </row>
+    <row r="177" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G177" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I177" s="24">
+        <v>177</v>
+      </c>
+      <c r="J177" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="K177" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L177" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M177" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N177" s="24"/>
+      <c r="O177" s="24"/>
+      <c r="P177" s="24"/>
+      <c r="Q177" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="R177" s="24"/>
+      <c r="S177" s="24"/>
+      <c r="T177" s="24"/>
+      <c r="U177" s="24"/>
+      <c r="V177" s="24"/>
+      <c r="W177" s="24"/>
+      <c r="X177" s="24"/>
+      <c r="Y177" s="24"/>
+      <c r="Z177" s="24"/>
+      <c r="AA177" s="24"/>
+      <c r="AB177" s="24"/>
+      <c r="AC177" s="24"/>
+      <c r="AD177" s="24"/>
+      <c r="AE177" s="24"/>
+      <c r="AF177" s="24"/>
+      <c r="AG177" s="24"/>
+      <c r="AH177" s="24"/>
+      <c r="AI177" s="24"/>
+      <c r="AJ177" s="24"/>
+      <c r="AK177" s="24"/>
+      <c r="AL177" s="24"/>
+      <c r="AM177" s="24"/>
+      <c r="AN177" s="24"/>
+      <c r="AO177" s="24"/>
+      <c r="AP177" s="24"/>
+      <c r="AQ177" s="24"/>
+      <c r="AR177" s="24"/>
+      <c r="AS177" s="24"/>
+      <c r="AT177" s="24"/>
+      <c r="AU177" s="24"/>
+    </row>
+    <row r="178" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E178" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G178" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I178" s="24">
+        <v>178</v>
+      </c>
+      <c r="J178" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="K178" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M178" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N178" s="24"/>
+      <c r="O178" s="24"/>
+      <c r="P178" s="24"/>
+      <c r="Q178" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R178" s="24"/>
+      <c r="S178" s="24"/>
+      <c r="T178" s="24"/>
+      <c r="U178" s="24"/>
+      <c r="V178" s="24"/>
+      <c r="W178" s="24"/>
+      <c r="X178" s="24"/>
+      <c r="Y178" s="24"/>
+      <c r="Z178" s="24"/>
+      <c r="AA178" s="24"/>
+      <c r="AB178" s="24"/>
+      <c r="AC178" s="24"/>
+      <c r="AD178" s="24"/>
+      <c r="AE178" s="24"/>
+      <c r="AF178" s="24"/>
+      <c r="AG178" s="24"/>
+      <c r="AH178" s="24"/>
+      <c r="AI178" s="24"/>
+      <c r="AJ178" s="24"/>
+      <c r="AK178" s="24"/>
+      <c r="AL178" s="24"/>
+      <c r="AM178" s="24"/>
+      <c r="AN178" s="24"/>
+      <c r="AO178" s="24"/>
+      <c r="AP178" s="24"/>
+      <c r="AQ178" s="24"/>
+      <c r="AR178" s="24"/>
+      <c r="AS178" s="24"/>
+      <c r="AT178" s="24"/>
+      <c r="AU178" s="24"/>
+    </row>
+    <row r="179" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E179" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G179" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I179" s="24">
+        <v>179</v>
+      </c>
+      <c r="J179" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="K179" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="L179" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M179" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="24"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="24"/>
+      <c r="Q179" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="R179" s="24"/>
+      <c r="S179" s="24"/>
+      <c r="T179" s="24"/>
+      <c r="U179" s="24"/>
+      <c r="V179" s="24"/>
+      <c r="W179" s="24"/>
+      <c r="X179" s="24"/>
+      <c r="Y179" s="24"/>
+      <c r="Z179" s="24"/>
+      <c r="AA179" s="24"/>
+      <c r="AB179" s="24"/>
+      <c r="AC179" s="24"/>
+      <c r="AD179" s="24"/>
+      <c r="AE179" s="24"/>
+      <c r="AF179" s="24"/>
+      <c r="AG179" s="24"/>
+      <c r="AH179" s="24"/>
+      <c r="AI179" s="24"/>
+      <c r="AJ179" s="24"/>
+      <c r="AK179" s="24"/>
+      <c r="AL179" s="24"/>
+      <c r="AM179" s="24"/>
+      <c r="AN179" s="24"/>
+      <c r="AO179" s="24"/>
+      <c r="AP179" s="24"/>
+      <c r="AQ179" s="24"/>
+      <c r="AR179" s="24"/>
+      <c r="AS179" s="24"/>
+      <c r="AT179" s="24"/>
+      <c r="AU179" s="24"/>
+    </row>
+    <row r="180" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E180" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G180" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I180" s="24">
+        <v>180</v>
+      </c>
+      <c r="J180" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="K180" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="L180" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="M180" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N180" s="24"/>
+      <c r="O180" s="24"/>
+      <c r="P180" s="24"/>
+      <c r="Q180" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="R180" s="24"/>
+      <c r="S180" s="24"/>
+      <c r="T180" s="24"/>
+      <c r="U180" s="24"/>
+      <c r="V180" s="24"/>
+      <c r="W180" s="24"/>
+      <c r="X180" s="24"/>
+      <c r="Y180" s="24"/>
+      <c r="Z180" s="24"/>
+      <c r="AA180" s="24"/>
+      <c r="AB180" s="24"/>
+      <c r="AC180" s="24"/>
+      <c r="AD180" s="24"/>
+      <c r="AE180" s="24"/>
+      <c r="AF180" s="24"/>
+      <c r="AG180" s="24"/>
+      <c r="AH180" s="24"/>
+      <c r="AI180" s="24"/>
+      <c r="AJ180" s="24"/>
+      <c r="AK180" s="24"/>
+      <c r="AL180" s="24"/>
+      <c r="AM180" s="24"/>
+      <c r="AN180" s="24"/>
+      <c r="AO180" s="24"/>
+      <c r="AP180" s="24"/>
+      <c r="AQ180" s="24"/>
+      <c r="AR180" s="24"/>
+      <c r="AS180" s="24"/>
+      <c r="AT180" s="24"/>
+      <c r="AU180" s="24"/>
+    </row>
+    <row r="181" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E181" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G181" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="I181" s="24">
         <v>181</v>
       </c>
-      <c r="D152" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="I152" s="26">
-        <v>152</v>
-      </c>
-      <c r="J152" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K152" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L152" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M152" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q152" s="26" t="s">
-        <v>332</v>
-      </c>
+      <c r="J181" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K181" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="L181" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M181" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N181" s="24"/>
+      <c r="O181" s="24"/>
+      <c r="P181" s="24"/>
+      <c r="Q181" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="R181" s="24"/>
+      <c r="S181" s="24"/>
+      <c r="T181" s="24"/>
+      <c r="U181" s="24"/>
+      <c r="V181" s="24"/>
+      <c r="W181" s="24"/>
+      <c r="X181" s="24"/>
+      <c r="Y181" s="24"/>
+      <c r="Z181" s="24"/>
+      <c r="AA181" s="24"/>
+      <c r="AB181" s="24"/>
+      <c r="AC181" s="24"/>
+      <c r="AD181" s="24"/>
+      <c r="AE181" s="24"/>
+      <c r="AF181" s="24"/>
+      <c r="AG181" s="24"/>
+      <c r="AH181" s="24"/>
+      <c r="AI181" s="24"/>
+      <c r="AJ181" s="24"/>
+      <c r="AK181" s="24"/>
+      <c r="AL181" s="24"/>
+      <c r="AM181" s="24"/>
+      <c r="AN181" s="24"/>
+      <c r="AO181" s="24"/>
+      <c r="AP181" s="24"/>
+      <c r="AQ181" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q152"/>
@@ -8393,11 +10122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="A3:E18"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8419,197 +10147,545 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="30" t="s">
+        <v>293</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="14"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="19"/>
       <c r="D5" s="17"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="17"/>
       <c r="C17" s="19"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>332</v>
+      <c r="C21" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39" t="s">
+        <v>375</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E18">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8617,10 +10693,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8649,26 +10725,26 @@
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>293</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="5"/>
@@ -8680,28 +10756,28 @@
       <c r="D5" s="17"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -8711,21 +10787,21 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>256</v>
+        <v>389</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8742,21 +10818,21 @@
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8773,32 +10849,87 @@
       <c r="D14" s="4"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>172</v>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>175</v>
+      <c r="E15" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="7"/>
     </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E16">
+  <autoFilter ref="A1:E21">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
